--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1823386.139167632</v>
+        <v>1820595.828538833</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2581043.061102536</v>
+        <v>2581043.061102535</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11502514.37296768</v>
+        <v>11502514.37296767</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6250514.240900219</v>
+        <v>6250514.24090022</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>65.82229135120394</v>
       </c>
       <c r="C11" t="n">
         <v>65.82229135120394</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.958590140067713</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>57.97627422214043</v>
+        <v>56.01768408207269</v>
       </c>
       <c r="X11" t="n">
         <v>65.82229135120394</v>
@@ -1446,64 +1446,64 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>57.97627422214043</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>65.82229135120394</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>65.82229135120394</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>57.97627422214043</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>65.82229135120394</v>
       </c>
       <c r="Y12" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1543,40 +1543,40 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>47.83452231935904</v>
+      </c>
+      <c r="R13" t="n">
         <v>65.82229135120394</v>
       </c>
-      <c r="I13" t="n">
+      <c r="S13" t="n">
         <v>65.82229135120394</v>
-      </c>
-      <c r="J13" t="n">
-        <v>35.55572970802098</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12.27879261133805</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1610,53 +1610,53 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>57.97627422214043</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>65.82229135120394</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>65.82229135120394</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>65.82229135120394</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>65.82229135120394</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>57.97627422214043</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>57.97627422214043</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.82229135120394</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>65.82229135120394</v>
       </c>
       <c r="T15" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>65.82229135120394</v>
       </c>
       <c r="W15" t="n">
-        <v>57.97627422214043</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.492013944783</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,43 +1780,43 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>64.85729004376489</v>
+      </c>
+      <c r="R16" t="n">
         <v>65.82229135120394</v>
       </c>
-      <c r="I16" t="n">
+      <c r="S16" t="n">
         <v>65.82229135120394</v>
       </c>
-      <c r="J16" t="n">
-        <v>65.82229135120394</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.9647386179534294</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>38.42175387017578</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>189.1711363624765</v>
+        <v>189.1711363624764</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>128.5643647332203</v>
+        <v>128.5643647332202</v>
       </c>
       <c r="S17" t="n">
-        <v>187.7153163783159</v>
+        <v>187.7153163783158</v>
       </c>
       <c r="T17" t="n">
         <v>201.7910963562019</v>
       </c>
       <c r="U17" t="n">
-        <v>228.0863384462045</v>
+        <v>228.0863384462049</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1926,22 +1926,22 @@
         <v>151.4037457803863</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>126.1403123567093</v>
       </c>
       <c r="E18" t="n">
         <v>136.3403272474715</v>
       </c>
       <c r="F18" t="n">
-        <v>123.7644591854545</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>116.0387639552812</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>90.93069102856704</v>
+        <v>84.50581268344382</v>
       </c>
       <c r="I18" t="n">
-        <v>68.09187964348565</v>
+        <v>68.09187964348558</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>18.36815548278275</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>230.3902299529902</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>184.468231995548</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>184.3779425693749</v>
       </c>
     </row>
     <row r="19">
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.85729004376496</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>155.9886381692401</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>14.07769840334319</v>
+        <v>234.9236266163486</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>74.76665096433511</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,64 +2090,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24.57006926512627</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>187.7153163783158</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>187.7153163783159</v>
-      </c>
-      <c r="T20" t="n">
-        <v>201.7910963562019</v>
-      </c>
-      <c r="U20" t="n">
-        <v>230.0408996999071</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>151.4037457803863</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.7644591854544</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>131.4552188854607</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>204.6366288730454</v>
+        <v>204.6366288730453</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>230.3902299529902</v>
+        <v>230.3902299529901</v>
       </c>
       <c r="X21" t="n">
-        <v>184.4682319955481</v>
+        <v>184.468231995548</v>
       </c>
       <c r="Y21" t="n">
-        <v>184.3779425693749</v>
+        <v>40.66495648899507</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>32.21178178730584</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>202.7118448290428</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>234.9236266163481</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>159.9405765097835</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>253.9749455579966</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>253.9749455579966</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>189.1711363624764</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.5643647332202</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>223.7011320474834</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>253.9749455579966</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>145.2284304419379</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>88.05475935467469</v>
+        <v>16.41035027166665</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.7644591854544</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>116.0387639552811</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>90.93069102856697</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>78.85308094471364</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>150.3784178959083</v>
       </c>
       <c r="T24" t="n">
-        <v>178.8599754868922</v>
+        <v>178.8599754868921</v>
       </c>
       <c r="U24" t="n">
-        <v>204.6366288730454</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>230.3902299529901</v>
       </c>
       <c r="X24" t="n">
-        <v>184.4682319955481</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>184.3779425693749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>32.21178178730592</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>30.51872443524057</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.7118448290428</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>204.4049021811077</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.8871810470924</v>
+        <v>300.8871810470923</v>
       </c>
       <c r="C26" t="n">
-        <v>283.4262311546194</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>300.0837094558735</v>
       </c>
       <c r="F26" t="n">
-        <v>306.836580228863</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>257.628141499379</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.99326662221772</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>34.52176188609995</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>267.3943081010248</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>287.8844400620808</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>84.68652303347908</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>90.86183837192748</v>
       </c>
       <c r="D27" t="n">
-        <v>65.59840494825056</v>
+        <v>65.59840494825049</v>
       </c>
       <c r="E27" t="n">
-        <v>75.79841983901275</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>63.22255177699569</v>
+        <v>63.22255177699562</v>
       </c>
       <c r="G27" t="n">
-        <v>55.49685654682244</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>30.38878362010827</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.549972235026885</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>18.31117353625494</v>
+        <v>18.31117353625487</v>
       </c>
       <c r="S27" t="n">
-        <v>89.83651048744963</v>
+        <v>89.83651048744956</v>
       </c>
       <c r="T27" t="n">
-        <v>118.3180680784334</v>
+        <v>118.3180680784333</v>
       </c>
       <c r="U27" t="n">
-        <v>144.0947214645866</v>
+        <v>91.37172149380731</v>
       </c>
       <c r="V27" t="n">
-        <v>150.9539265330371</v>
+        <v>150.953926533037</v>
       </c>
       <c r="W27" t="n">
         <v>169.8483225445314</v>
       </c>
       <c r="X27" t="n">
-        <v>123.9263245870893</v>
+        <v>123.9263245870892</v>
       </c>
       <c r="Y27" t="n">
-        <v>77.42736435457243</v>
+        <v>123.8360351609161</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.9853195655491</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>80.38051189105131</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>95.44673076078129</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>146.0989288118933</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>204.4723687401026</v>
       </c>
       <c r="V28" t="n">
-        <v>170.2909827074398</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>161.2849515992722</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.8629947726489</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.17886515741114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>131.1377291010245</v>
+        <v>269.1324271561712</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>306.836580228863</v>
       </c>
       <c r="G29" t="n">
         <v>306.836580228863</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>54.8653088356977</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>112.8796049714089</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>155.205188293</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>231.6117938552985</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>253.1005041025766</v>
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>70.39271903503091</v>
+        <v>70.39271903503092</v>
       </c>
       <c r="C30" t="n">
-        <v>76.56803437347931</v>
+        <v>76.56803437347932</v>
       </c>
       <c r="D30" t="n">
-        <v>51.30460094980232</v>
+        <v>51.30460094980234</v>
       </c>
       <c r="E30" t="n">
-        <v>61.50461584056451</v>
+        <v>61.50461584056453</v>
       </c>
       <c r="F30" t="n">
-        <v>48.92874777854745</v>
+        <v>48.92874777854746</v>
       </c>
       <c r="G30" t="n">
-        <v>41.2030525483742</v>
+        <v>41.20305254837422</v>
       </c>
       <c r="H30" t="n">
-        <v>16.09497962166003</v>
+        <v>16.09497962166004</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.017369537806701</v>
+        <v>4.017369537806715</v>
       </c>
       <c r="S30" t="n">
-        <v>75.54270648900139</v>
+        <v>75.5427064890014</v>
       </c>
       <c r="T30" t="n">
         <v>104.0242640799852</v>
@@ -2928,13 +2928,13 @@
         <v>129.8009174661384</v>
       </c>
       <c r="V30" t="n">
-        <v>136.6601225345888</v>
+        <v>136.6601225345889</v>
       </c>
       <c r="W30" t="n">
         <v>155.5545185460832</v>
       </c>
       <c r="X30" t="n">
-        <v>109.632520588641</v>
+        <v>109.6325205886411</v>
       </c>
       <c r="Y30" t="n">
         <v>109.5422311624679</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.69151556710086</v>
+        <v>83.69151556710088</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>81.15292676233305</v>
+        <v>81.15292676233307</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>127.8761334221358</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>190.1785647416544</v>
+        <v>190.1785647416545</v>
       </c>
       <c r="V31" t="n">
-        <v>155.9971787089916</v>
+        <v>13.28108429603626</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>190.3825337217546</v>
       </c>
       <c r="X31" t="n">
-        <v>53.09838399367703</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.4441887372584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>252.6744218031758</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>258.5425770058465</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>285.7899054574253</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>306.836580228863</v>
       </c>
-      <c r="G32" t="n">
-        <v>184.3971495670364</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>243.3343375009307</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>114.3354249555695</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>155.2051882930001</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>273.5906360636326</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>48.92874777854746</v>
       </c>
       <c r="G33" t="n">
-        <v>41.20305254837412</v>
+        <v>41.20305254837422</v>
       </c>
       <c r="H33" t="n">
         <v>16.09497962166004</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.017369537806715</v>
+        <v>4.017369537806603</v>
       </c>
       <c r="S33" t="n">
         <v>75.5427064890014</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>83.69151556710088</v>
       </c>
       <c r="C34" t="n">
         <v>71.10635648379142</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>50.29349803173275</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>71.85051474362234</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>66.08670789260316</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.522485223443094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>127.8761334221358</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>190.3825337217546</v>
       </c>
       <c r="X34" t="n">
-        <v>3.263333538116182</v>
+        <v>129.5691907742007</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,17 +3269,17 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.72865332631326</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>112.8796049714089</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>213.4646846003972</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>159.736031274084</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>70.39271903503092</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>76.56803437347932</v>
       </c>
       <c r="D36" t="n">
-        <v>51.30460094980234</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>48.92874777854746</v>
+        <v>33.98556749822698</v>
       </c>
       <c r="G36" t="n">
-        <v>41.20305254837422</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>16.09497962166004</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>4.017369537806715</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>75.5427064890014</v>
       </c>
       <c r="T36" t="n">
         <v>104.0242640799852</v>
@@ -3405,7 +3405,7 @@
         <v>136.6601225345889</v>
       </c>
       <c r="W36" t="n">
-        <v>37.1586925998967</v>
+        <v>155.5545185460832</v>
       </c>
       <c r="X36" t="n">
         <v>109.6325205886411</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>26.82769119724387</v>
       </c>
       <c r="F37" t="n">
-        <v>49.28058340809483</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>127.8761334221358</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>131.8051248134451</v>
@@ -3481,16 +3481,16 @@
         <v>190.1785647416545</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>155.9971787089916</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>128.112341813263</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>122.4441887372584</v>
       </c>
     </row>
     <row r="38">
@@ -3500,73 +3500,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>44.22130736155928</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>114.3354249555695</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>53.72865332631326</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3588,13 +3588,13 @@
         <v>51.30460094980234</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.9256408673918298</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>41.20305254837422</v>
       </c>
       <c r="H39" t="n">
         <v>16.09497962166004</v>
@@ -3630,10 +3630,10 @@
         <v>4.017369537806715</v>
       </c>
       <c r="S39" t="n">
-        <v>75.5427064890014</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>70.61025100674983</v>
+        <v>104.0242640799852</v>
       </c>
       <c r="U39" t="n">
         <v>129.8009174661384</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>83.69151556710088</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>71.10635648379142</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>71.85051474362234</v>
       </c>
       <c r="H40" t="n">
-        <v>48.55633585126939</v>
+        <v>59.01368943831211</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>81.15292676233307</v>
       </c>
       <c r="S40" t="n">
-        <v>127.8761334221358</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>190.3825337217546</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>129.5691907742007</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>57.97627422214043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.9762742221404</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="U42" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="W42" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>57.97627422214043</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>57.97627422214041</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="W43" t="n">
-        <v>57.97627422214043</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.97627422214041</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="G44" t="n">
-        <v>47.98557500759558</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>65.82229135120394</v>
+        <v>57.9762742221404</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>57.97627422214041</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>57.97627422214043</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="X45" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="Y45" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.542384882960097</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.542384882960139</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>138.2401092701245</v>
+        <v>73.73132016796669</v>
       </c>
       <c r="C11" t="n">
-        <v>71.75294628911041</v>
+        <v>7.244157186952592</v>
       </c>
       <c r="D11" t="n">
-        <v>71.75294628911041</v>
+        <v>7.244157186952592</v>
       </c>
       <c r="E11" t="n">
-        <v>5.265783308096315</v>
+        <v>7.244157186952592</v>
       </c>
       <c r="F11" t="n">
-        <v>5.265783308096315</v>
+        <v>7.244157186952592</v>
       </c>
       <c r="G11" t="n">
-        <v>5.265783308096315</v>
+        <v>7.244157186952592</v>
       </c>
       <c r="H11" t="n">
-        <v>5.265783308096315</v>
+        <v>7.244157186952592</v>
       </c>
       <c r="I11" t="n">
-        <v>5.265783308096315</v>
+        <v>7.244157186952592</v>
       </c>
       <c r="J11" t="n">
         <v>5.265783308096315</v>
@@ -5078,13 +5078,13 @@
         <v>263.2891654048158</v>
       </c>
       <c r="W11" t="n">
-        <v>204.7272722511386</v>
+        <v>206.7056461299949</v>
       </c>
       <c r="X11" t="n">
-        <v>138.2401092701245</v>
+        <v>140.2184831489808</v>
       </c>
       <c r="Y11" t="n">
-        <v>138.2401092701245</v>
+        <v>140.2184831489808</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.75294628911041</v>
+        <v>63.82767646177352</v>
       </c>
       <c r="C12" t="n">
-        <v>71.75294628911041</v>
+        <v>63.82767646177352</v>
       </c>
       <c r="D12" t="n">
-        <v>71.75294628911041</v>
+        <v>63.82767646177352</v>
       </c>
       <c r="E12" t="n">
-        <v>71.75294628911041</v>
+        <v>63.82767646177352</v>
       </c>
       <c r="F12" t="n">
-        <v>71.75294628911041</v>
+        <v>63.82767646177352</v>
       </c>
       <c r="G12" t="n">
         <v>5.265783308096315</v>
@@ -5127,13 +5127,13 @@
         <v>70.42985174578823</v>
       </c>
       <c r="M12" t="n">
-        <v>132.9610285294319</v>
+        <v>135.5939201834801</v>
       </c>
       <c r="N12" t="n">
         <v>198.1250969671239</v>
       </c>
       <c r="O12" t="n">
-        <v>263.2891654048158</v>
+        <v>198.1250969671239</v>
       </c>
       <c r="P12" t="n">
         <v>263.2891654048158</v>
@@ -5142,28 +5142,28 @@
         <v>263.2891654048158</v>
       </c>
       <c r="R12" t="n">
-        <v>263.2891654048158</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="S12" t="n">
-        <v>263.2891654048158</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="T12" t="n">
-        <v>263.2891654048158</v>
+        <v>130.3148394427876</v>
       </c>
       <c r="U12" t="n">
-        <v>204.7272722511386</v>
+        <v>130.3148394427876</v>
       </c>
       <c r="V12" t="n">
-        <v>204.7272722511386</v>
+        <v>130.3148394427876</v>
       </c>
       <c r="W12" t="n">
-        <v>204.7272722511386</v>
+        <v>130.3148394427876</v>
       </c>
       <c r="X12" t="n">
-        <v>204.7272722511386</v>
+        <v>63.82767646177352</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.2401092701245</v>
+        <v>63.82767646177352</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="C13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="D13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="E13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="F13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="G13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="H13" t="n">
-        <v>120.0706456015943</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="I13" t="n">
-        <v>53.58348262058018</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="J13" t="n">
-        <v>17.6686041276297</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="K13" t="n">
         <v>5.265783308096315</v>
@@ -5218,31 +5218,31 @@
         <v>186.5578085826084</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.5578085826084</v>
+        <v>138.2401092701245</v>
       </c>
       <c r="R13" t="n">
-        <v>186.5578085826084</v>
+        <v>71.75294628911041</v>
       </c>
       <c r="S13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="T13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="U13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="V13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="W13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="X13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.5578085826084</v>
+        <v>5.265783308096315</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>138.2401092701245</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="C14" t="n">
-        <v>138.2401092701245</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="D14" t="n">
         <v>138.2401092701245</v>
       </c>
       <c r="E14" t="n">
-        <v>138.2401092701245</v>
+        <v>71.75294628911041</v>
       </c>
       <c r="F14" t="n">
         <v>71.75294628911041</v>
       </c>
       <c r="G14" t="n">
-        <v>71.75294628911041</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="H14" t="n">
-        <v>71.75294628911041</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="I14" t="n">
         <v>5.265783308096315</v>
@@ -5279,19 +5279,19 @@
         <v>5.265783308096315</v>
       </c>
       <c r="K14" t="n">
-        <v>5.265783308096315</v>
+        <v>70.42985174578823</v>
       </c>
       <c r="L14" t="n">
-        <v>70.42985174578823</v>
+        <v>135.5939201834801</v>
       </c>
       <c r="M14" t="n">
         <v>135.5939201834801</v>
       </c>
       <c r="N14" t="n">
-        <v>200.757988621172</v>
+        <v>135.5939201834801</v>
       </c>
       <c r="O14" t="n">
-        <v>263.2891654048158</v>
+        <v>198.1250969671239</v>
       </c>
       <c r="P14" t="n">
         <v>263.2891654048158</v>
@@ -5300,7 +5300,7 @@
         <v>263.2891654048158</v>
       </c>
       <c r="R14" t="n">
-        <v>196.8020024238017</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="S14" t="n">
         <v>196.8020024238017</v>
@@ -5315,13 +5315,13 @@
         <v>196.8020024238017</v>
       </c>
       <c r="W14" t="n">
-        <v>138.2401092701245</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="X14" t="n">
-        <v>138.2401092701245</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="Y14" t="n">
-        <v>138.2401092701245</v>
+        <v>196.8020024238017</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911041</v>
       </c>
       <c r="C15" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911041</v>
       </c>
       <c r="D15" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911041</v>
       </c>
       <c r="E15" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911041</v>
       </c>
       <c r="F15" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911041</v>
       </c>
       <c r="G15" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911041</v>
       </c>
       <c r="H15" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911041</v>
       </c>
       <c r="I15" t="n">
         <v>5.265783308096315</v>
@@ -5358,22 +5358,22 @@
         <v>5.265783308096315</v>
       </c>
       <c r="K15" t="n">
-        <v>5.265783308096315</v>
+        <v>70.42985174578823</v>
       </c>
       <c r="L15" t="n">
         <v>70.42985174578823</v>
       </c>
       <c r="M15" t="n">
-        <v>132.9610285294319</v>
+        <v>70.42985174578823</v>
       </c>
       <c r="N15" t="n">
         <v>132.9610285294319</v>
       </c>
       <c r="O15" t="n">
-        <v>132.9610285294319</v>
+        <v>198.1250969671239</v>
       </c>
       <c r="P15" t="n">
-        <v>198.1250969671239</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="Q15" t="n">
         <v>263.2891654048158</v>
@@ -5382,25 +5382,25 @@
         <v>263.2891654048158</v>
       </c>
       <c r="S15" t="n">
-        <v>263.2891654048158</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="T15" t="n">
         <v>196.8020024238017</v>
       </c>
       <c r="U15" t="n">
+        <v>196.8020024238017</v>
+      </c>
+      <c r="V15" t="n">
         <v>130.3148394427876</v>
       </c>
-      <c r="V15" t="n">
-        <v>63.82767646177352</v>
-      </c>
       <c r="W15" t="n">
-        <v>5.265783308096315</v>
+        <v>130.3148394427876</v>
       </c>
       <c r="X15" t="n">
-        <v>5.265783308096315</v>
+        <v>130.3148394427876</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.265783308096315</v>
+        <v>130.3148394427876</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.5623758498623</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="C16" t="n">
-        <v>242.5623758498623</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="D16" t="n">
-        <v>242.5623758498623</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="E16" t="n">
-        <v>205.7017557036168</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="F16" t="n">
-        <v>205.7017557036168</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="G16" t="n">
-        <v>205.7017557036168</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="H16" t="n">
-        <v>139.2145927226027</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="I16" t="n">
-        <v>72.72742974158862</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="J16" t="n">
-        <v>6.240266760574527</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="K16" t="n">
         <v>5.265783308096315</v>
       </c>
       <c r="L16" t="n">
-        <v>53.67161399165942</v>
+        <v>53.67161399165949</v>
       </c>
       <c r="M16" t="n">
-        <v>113.9513578597317</v>
+        <v>113.9513578597319</v>
       </c>
       <c r="N16" t="n">
-        <v>178.7339141910182</v>
+        <v>178.7339141910184</v>
       </c>
       <c r="O16" t="n">
-        <v>224.1648965017676</v>
+        <v>224.1648965017678</v>
       </c>
       <c r="P16" t="n">
-        <v>242.5623758498623</v>
+        <v>242.5623758498626</v>
       </c>
       <c r="Q16" t="n">
-        <v>242.5623758498623</v>
+        <v>177.0499616642415</v>
       </c>
       <c r="R16" t="n">
-        <v>242.5623758498623</v>
+        <v>110.5627986832274</v>
       </c>
       <c r="S16" t="n">
-        <v>242.5623758498623</v>
+        <v>44.07563570221328</v>
       </c>
       <c r="T16" t="n">
-        <v>242.5623758498623</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="U16" t="n">
-        <v>242.5623758498623</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="V16" t="n">
-        <v>242.5623758498623</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="W16" t="n">
-        <v>242.5623758498623</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="X16" t="n">
-        <v>242.5623758498623</v>
+        <v>5.265783308096315</v>
       </c>
       <c r="Y16" t="n">
-        <v>242.5623758498623</v>
+        <v>5.265783308096315</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="C17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="D17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="E17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="F17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="G17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="H17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>834.1941608306157</v>
+        <v>834.1941608306158</v>
       </c>
       <c r="S17" t="n">
-        <v>644.5827301454481</v>
+        <v>644.5827301454483</v>
       </c>
       <c r="T17" t="n">
-        <v>440.7533398866582</v>
+        <v>440.7533398866585</v>
       </c>
       <c r="U17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="V17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="W17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="X17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
       <c r="Y17" t="n">
-        <v>210.3630990319062</v>
+        <v>210.3630990319061</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>712.7860591108655</v>
+        <v>591.4852620107142</v>
       </c>
       <c r="C18" t="n">
-        <v>559.8529825650207</v>
+        <v>438.5521854648695</v>
       </c>
       <c r="D18" t="n">
-        <v>559.8529825650207</v>
+        <v>311.1377285389005</v>
       </c>
       <c r="E18" t="n">
-        <v>422.1354802948475</v>
+        <v>173.4202262687273</v>
       </c>
       <c r="F18" t="n">
-        <v>297.1208750570147</v>
+        <v>173.4202262687273</v>
       </c>
       <c r="G18" t="n">
-        <v>179.9100023749124</v>
+        <v>173.4202262687273</v>
       </c>
       <c r="H18" t="n">
-        <v>88.06081951777399</v>
+        <v>88.06081951777392</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5601,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5625,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>945.503463103785</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>945.503463103785</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>712.7860591108655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>712.7860591108655</v>
+        <v>777.7256080403857</v>
       </c>
       <c r="Y18" t="n">
-        <v>712.7860591108655</v>
+        <v>591.4852620107142</v>
       </c>
     </row>
     <row r="19">
@@ -5677,31 +5677,31 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>67.68697379377582</v>
+        <v>67.68697379377591</v>
       </c>
       <c r="M19" t="n">
-        <v>127.9667176618481</v>
+        <v>127.9667176618483</v>
       </c>
       <c r="N19" t="n">
-        <v>192.7492739931346</v>
+        <v>192.7492739931348</v>
       </c>
       <c r="O19" t="n">
-        <v>238.180256303884</v>
+        <v>238.1802563038843</v>
       </c>
       <c r="P19" t="n">
-        <v>256.5777356519786</v>
+        <v>256.577735651979</v>
       </c>
       <c r="Q19" t="n">
-        <v>191.0653214663574</v>
+        <v>256.577735651979</v>
       </c>
       <c r="R19" t="n">
-        <v>33.50104048732706</v>
+        <v>256.577735651979</v>
       </c>
       <c r="S19" t="n">
-        <v>33.50104048732706</v>
+        <v>256.577735651979</v>
       </c>
       <c r="T19" t="n">
-        <v>33.50104048732706</v>
+        <v>256.577735651979</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>287.5481715372686</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>44.09939489316855</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>44.09939489316855</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>44.09939489316855</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>44.09939489316855</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>44.09939489316855</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>44.09939489316855</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>774.4457248254686</v>
+        <v>774.4457248254687</v>
       </c>
       <c r="T20" t="n">
-        <v>570.6163345666787</v>
+        <v>774.4457248254687</v>
       </c>
       <c r="U20" t="n">
-        <v>338.2517894152573</v>
+        <v>774.4457248254687</v>
       </c>
       <c r="V20" t="n">
-        <v>338.2517894152573</v>
+        <v>774.4457248254687</v>
       </c>
       <c r="W20" t="n">
-        <v>338.2517894152573</v>
+        <v>774.4457248254687</v>
       </c>
       <c r="X20" t="n">
-        <v>338.2517894152573</v>
+        <v>774.4457248254687</v>
       </c>
       <c r="Y20" t="n">
-        <v>338.2517894152573</v>
+        <v>530.9969481813687</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>297.2288248938902</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.2957483480454</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.2957483480454</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.2957483480454</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>831.274106131383</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>624.5704406030543</v>
+        <v>757.3534899823076</v>
       </c>
       <c r="V21" t="n">
-        <v>624.5704406030543</v>
+        <v>757.3534899823076</v>
       </c>
       <c r="W21" t="n">
-        <v>391.853036610135</v>
+        <v>524.6360859893882</v>
       </c>
       <c r="X21" t="n">
-        <v>205.5214891398844</v>
+        <v>338.3045385191377</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>297.2288248938902</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.7605629688704</v>
+        <v>51.81829643072368</v>
       </c>
       <c r="C22" t="n">
-        <v>726.7605629688704</v>
+        <v>51.81829643072368</v>
       </c>
       <c r="D22" t="n">
-        <v>726.7605629688704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>726.7605629688704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>726.7605629688704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>726.7605629688704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>726.7605629688704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>726.7605629688704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>726.7605629688704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>726.7605629688704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>775.1663936524335</v>
+        <v>67.68697379377591</v>
       </c>
       <c r="M22" t="n">
-        <v>835.4461375205058</v>
+        <v>127.9667176618483</v>
       </c>
       <c r="N22" t="n">
-        <v>900.2286938517922</v>
+        <v>192.7492739931348</v>
       </c>
       <c r="O22" t="n">
-        <v>945.6596761625416</v>
+        <v>238.1802563038843</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>256.577735651979</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>256.577735651979</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>256.577735651979</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>51.81829643072368</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>51.81829643072368</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>51.81829643072368</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>51.81829643072368</v>
       </c>
       <c r="W22" t="n">
-        <v>726.7605629688704</v>
+        <v>51.81829643072368</v>
       </c>
       <c r="X22" t="n">
-        <v>726.7605629688704</v>
+        <v>51.81829643072368</v>
       </c>
       <c r="Y22" t="n">
-        <v>726.7605629688704</v>
+        <v>51.81829643072368</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>533.3986937416025</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="C23" t="n">
-        <v>533.3986937416025</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="D23" t="n">
-        <v>276.8583446931211</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="E23" t="n">
-        <v>20.31799564463973</v>
+        <v>724.4806496632959</v>
       </c>
       <c r="F23" t="n">
-        <v>20.31799564463973</v>
+        <v>724.4806496632959</v>
       </c>
       <c r="G23" t="n">
-        <v>20.31799564463973</v>
+        <v>467.9403006148145</v>
       </c>
       <c r="H23" t="n">
-        <v>20.31799564463973</v>
+        <v>211.3999515663331</v>
       </c>
       <c r="I23" t="n">
         <v>20.31799564463973</v>
       </c>
       <c r="J23" t="n">
-        <v>29.57990485942346</v>
+        <v>29.57990485942354</v>
       </c>
       <c r="K23" t="n">
-        <v>141.8461566131843</v>
+        <v>132.5949107703459</v>
       </c>
       <c r="L23" t="n">
-        <v>321.922008197843</v>
+        <v>333.7624680308547</v>
       </c>
       <c r="M23" t="n">
-        <v>538.8976354607471</v>
+        <v>559.9893411365973</v>
       </c>
       <c r="N23" t="n">
         <v>765.8438633438366</v>
@@ -6008,31 +6008,31 @@
         <v>1004.698868778536</v>
       </c>
       <c r="Q23" t="n">
-        <v>1015.899782231986</v>
+        <v>1015.899782231987</v>
       </c>
       <c r="R23" t="n">
-        <v>1015.899782231986</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="S23" t="n">
-        <v>1015.899782231986</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="T23" t="n">
-        <v>1015.899782231986</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="U23" t="n">
-        <v>789.9390427900839</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="V23" t="n">
-        <v>533.3986937416025</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="W23" t="n">
-        <v>533.3986937416025</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="X23" t="n">
-        <v>533.3986937416025</v>
+        <v>886.0367875519662</v>
       </c>
       <c r="Y23" t="n">
-        <v>533.3986937416025</v>
+        <v>886.0367875519662</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.262197012998</v>
+        <v>370.9687678072348</v>
       </c>
       <c r="C24" t="n">
-        <v>109.262197012998</v>
+        <v>370.9687678072348</v>
       </c>
       <c r="D24" t="n">
-        <v>20.31799564463973</v>
+        <v>354.392656421713</v>
       </c>
       <c r="E24" t="n">
-        <v>20.31799564463973</v>
+        <v>354.392656421713</v>
       </c>
       <c r="F24" t="n">
-        <v>20.31799564463973</v>
+        <v>229.3780511838802</v>
       </c>
       <c r="G24" t="n">
-        <v>20.31799564463973</v>
+        <v>112.1671785017781</v>
       </c>
       <c r="H24" t="n">
         <v>20.31799564463973</v>
@@ -6069,49 +6069,49 @@
         <v>20.31799564463973</v>
       </c>
       <c r="K24" t="n">
-        <v>20.31799564463973</v>
+        <v>145.6755557024771</v>
       </c>
       <c r="L24" t="n">
-        <v>250.2811015129889</v>
+        <v>145.6755557024771</v>
       </c>
       <c r="M24" t="n">
-        <v>501.7162976154055</v>
+        <v>333.0676944322568</v>
       </c>
       <c r="N24" t="n">
-        <v>584.5028905346733</v>
+        <v>584.5028905346735</v>
       </c>
       <c r="O24" t="n">
-        <v>833.2563046186356</v>
+        <v>833.2563046186358</v>
       </c>
       <c r="P24" t="n">
-        <v>1015.899782231986</v>
+        <v>1015.899782231987</v>
       </c>
       <c r="Q24" t="n">
-        <v>1015.899782231986</v>
+        <v>1015.899782231987</v>
       </c>
       <c r="R24" t="n">
-        <v>1015.899782231986</v>
+        <v>936.2502055201546</v>
       </c>
       <c r="S24" t="n">
-        <v>1015.899782231986</v>
+        <v>784.3528137061057</v>
       </c>
       <c r="T24" t="n">
-        <v>835.2331403260347</v>
+        <v>603.6861718001542</v>
       </c>
       <c r="U24" t="n">
-        <v>628.529474797706</v>
+        <v>603.6861718001542</v>
       </c>
       <c r="V24" t="n">
-        <v>628.529474797706</v>
+        <v>603.6861718001542</v>
       </c>
       <c r="W24" t="n">
-        <v>628.529474797706</v>
+        <v>370.9687678072348</v>
       </c>
       <c r="X24" t="n">
-        <v>442.1979273274554</v>
+        <v>370.9687678072348</v>
       </c>
       <c r="Y24" t="n">
-        <v>255.9575812977838</v>
+        <v>370.9687678072348</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="C25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="D25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="E25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="F25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="G25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="H25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="I25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="J25" t="n">
-        <v>20.31799564463973</v>
+        <v>778.6031896902202</v>
       </c>
       <c r="K25" t="n">
-        <v>20.31799564463973</v>
+        <v>778.6031896902202</v>
       </c>
       <c r="L25" t="n">
-        <v>68.72382632820283</v>
+        <v>827.0090203737834</v>
       </c>
       <c r="M25" t="n">
-        <v>129.0035701962751</v>
+        <v>887.2887642418558</v>
       </c>
       <c r="N25" t="n">
-        <v>193.7861265275616</v>
+        <v>952.0713205731423</v>
       </c>
       <c r="O25" t="n">
-        <v>239.217108838311</v>
+        <v>997.5023028838918</v>
       </c>
       <c r="P25" t="n">
-        <v>257.6145881864057</v>
+        <v>1015.899782231987</v>
       </c>
       <c r="Q25" t="n">
-        <v>257.6145881864057</v>
+        <v>1015.899782231987</v>
       </c>
       <c r="R25" t="n">
-        <v>226.7875938073748</v>
+        <v>1015.899782231987</v>
       </c>
       <c r="S25" t="n">
-        <v>226.7875938073748</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7875938073748</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="U25" t="n">
-        <v>226.7875938073748</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="V25" t="n">
-        <v>226.7875938073748</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="W25" t="n">
-        <v>226.7875938073748</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="X25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.31799564463973</v>
+        <v>811.1403430107313</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>923.4198754133384</v>
+        <v>327.6617844545449</v>
       </c>
       <c r="C26" t="n">
-        <v>637.130753034935</v>
+        <v>327.6617844545449</v>
       </c>
       <c r="D26" t="n">
-        <v>637.130753034935</v>
+        <v>327.6617844545449</v>
       </c>
       <c r="E26" t="n">
-        <v>637.130753034935</v>
+        <v>24.54692641830904</v>
       </c>
       <c r="F26" t="n">
-        <v>327.1948134098208</v>
+        <v>24.54692641830904</v>
       </c>
       <c r="G26" t="n">
-        <v>327.1948134098208</v>
+        <v>24.54692641830904</v>
       </c>
       <c r="H26" t="n">
-        <v>66.96436745085219</v>
+        <v>24.54692641830904</v>
       </c>
       <c r="I26" t="n">
         <v>24.54692641830904</v>
       </c>
       <c r="J26" t="n">
-        <v>24.54692641830904</v>
+        <v>93.74532396746702</v>
       </c>
       <c r="K26" t="n">
-        <v>208.590126339456</v>
+        <v>196.7603298783894</v>
       </c>
       <c r="L26" t="n">
-        <v>388.6659779241146</v>
+        <v>376.836181463048</v>
       </c>
       <c r="M26" t="n">
-        <v>686.669799197243</v>
+        <v>593.8118087259521</v>
       </c>
       <c r="N26" t="n">
-        <v>973.5525154147066</v>
+        <v>880.6945249434159</v>
       </c>
       <c r="O26" t="n">
-        <v>1122.747465557355</v>
+        <v>1066.548863835576</v>
       </c>
       <c r="P26" t="n">
-        <v>1212.407520849406</v>
+        <v>1156.208919127627</v>
       </c>
       <c r="Q26" t="n">
         <v>1227.346320915452</v>
@@ -6254,22 +6254,22 @@
         <v>1227.346320915452</v>
       </c>
       <c r="T26" t="n">
-        <v>1227.346320915452</v>
+        <v>1192.475854363836</v>
       </c>
       <c r="U26" t="n">
-        <v>1227.346320915452</v>
+        <v>1192.475854363836</v>
       </c>
       <c r="V26" t="n">
-        <v>1227.346320915452</v>
+        <v>1192.475854363836</v>
       </c>
       <c r="W26" t="n">
-        <v>1227.346320915452</v>
+        <v>922.38059365573</v>
       </c>
       <c r="X26" t="n">
-        <v>1227.346320915452</v>
+        <v>631.5882299566584</v>
       </c>
       <c r="Y26" t="n">
-        <v>1227.346320915452</v>
+        <v>631.5882299566584</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>325.6125718387299</v>
+        <v>246.4487396477774</v>
       </c>
       <c r="C27" t="n">
-        <v>325.6125718387299</v>
+        <v>154.6691049286587</v>
       </c>
       <c r="D27" t="n">
-        <v>259.3515567394869</v>
+        <v>88.40808982941573</v>
       </c>
       <c r="E27" t="n">
-        <v>182.7874962960396</v>
+        <v>88.40808982941573</v>
       </c>
       <c r="F27" t="n">
-        <v>118.9263328849329</v>
+        <v>24.54692641830904</v>
       </c>
       <c r="G27" t="n">
-        <v>62.86890202955668</v>
+        <v>24.54692641830904</v>
       </c>
       <c r="H27" t="n">
-        <v>32.17316099914428</v>
+        <v>24.54692641830904</v>
       </c>
       <c r="I27" t="n">
         <v>24.54692641830904</v>
@@ -6312,7 +6312,7 @@
         <v>379.8675923444956</v>
       </c>
       <c r="M27" t="n">
-        <v>683.6358067710701</v>
+        <v>422.7866562782353</v>
       </c>
       <c r="N27" t="n">
         <v>726.5548707048097</v>
@@ -6333,22 +6333,22 @@
         <v>1118.106236043023</v>
       </c>
       <c r="T27" t="n">
-        <v>998.5930359637975</v>
+        <v>998.5930359637977</v>
       </c>
       <c r="U27" t="n">
-        <v>853.0428122621948</v>
+        <v>906.2983677882347</v>
       </c>
       <c r="V27" t="n">
-        <v>700.5640985924604</v>
+        <v>753.8196541185004</v>
       </c>
       <c r="W27" t="n">
-        <v>529.000136426267</v>
+        <v>582.2556919523071</v>
       </c>
       <c r="X27" t="n">
-        <v>403.8220307827424</v>
+        <v>457.0775863087826</v>
       </c>
       <c r="Y27" t="n">
-        <v>325.6125718387299</v>
+        <v>331.990682105837</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.54692641830904</v>
+        <v>712.5783258528016</v>
       </c>
       <c r="C28" t="n">
-        <v>24.54692641830904</v>
+        <v>712.5783258528016</v>
       </c>
       <c r="D28" t="n">
-        <v>24.54692641830904</v>
+        <v>712.5783258528016</v>
       </c>
       <c r="E28" t="n">
-        <v>24.54692641830904</v>
+        <v>712.5783258528016</v>
       </c>
       <c r="F28" t="n">
-        <v>24.54692641830904</v>
+        <v>712.5783258528016</v>
       </c>
       <c r="G28" t="n">
-        <v>24.54692641830904</v>
+        <v>712.5783258528016</v>
       </c>
       <c r="H28" t="n">
-        <v>24.54692641830904</v>
+        <v>631.3858895992145</v>
       </c>
       <c r="I28" t="n">
-        <v>24.54692641830904</v>
+        <v>631.3858895992145</v>
       </c>
       <c r="J28" t="n">
-        <v>24.54692641830904</v>
+        <v>631.3858895992145</v>
       </c>
       <c r="K28" t="n">
-        <v>83.52832352090932</v>
+        <v>690.3672867018148</v>
       </c>
       <c r="L28" t="n">
-        <v>191.8706425388466</v>
+        <v>798.7096057197522</v>
       </c>
       <c r="M28" t="n">
-        <v>312.0868747412931</v>
+        <v>918.9258379221988</v>
       </c>
       <c r="N28" t="n">
-        <v>436.8059194069536</v>
+        <v>1043.644882587859</v>
       </c>
       <c r="O28" t="n">
-        <v>542.1733900520773</v>
+        <v>1149.012353232983</v>
       </c>
       <c r="P28" t="n">
-        <v>620.5073577345461</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="Q28" t="n">
-        <v>620.5073577345461</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="R28" t="n">
-        <v>524.0965185822417</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="S28" t="n">
-        <v>524.0965185822417</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="T28" t="n">
-        <v>376.5218430146728</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="U28" t="n">
-        <v>376.5218430146728</v>
+        <v>1020.808574713328</v>
       </c>
       <c r="V28" t="n">
-        <v>204.5107493707941</v>
+        <v>1020.808574713328</v>
       </c>
       <c r="W28" t="n">
-        <v>204.5107493707941</v>
+        <v>857.8944821888107</v>
       </c>
       <c r="X28" t="n">
-        <v>204.5107493707941</v>
+        <v>712.5783258528016</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.5219966865405</v>
+        <v>712.5783258528016</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>466.9452186707207</v>
+        <v>971.6892460643645</v>
       </c>
       <c r="C29" t="n">
-        <v>334.4828660434232</v>
+        <v>699.8383095429795</v>
       </c>
       <c r="D29" t="n">
-        <v>334.4828660434232</v>
+        <v>699.8383095429795</v>
       </c>
       <c r="E29" t="n">
-        <v>334.4828660434232</v>
+        <v>699.8383095429795</v>
       </c>
       <c r="F29" t="n">
-        <v>334.4828660434232</v>
+        <v>389.9023699178653</v>
       </c>
       <c r="G29" t="n">
-        <v>24.54692641830904</v>
+        <v>79.96643029275117</v>
       </c>
       <c r="H29" t="n">
         <v>24.54692641830904</v>
@@ -6461,16 +6461,16 @@
         <v>24.54692641830904</v>
       </c>
       <c r="J29" t="n">
-        <v>102.1029808000517</v>
+        <v>107.8961899259307</v>
       </c>
       <c r="K29" t="n">
-        <v>205.1179867109741</v>
+        <v>210.911195836853</v>
       </c>
       <c r="L29" t="n">
-        <v>480.3728982643207</v>
+        <v>390.9870474215116</v>
       </c>
       <c r="M29" t="n">
-        <v>697.3485255272249</v>
+        <v>607.9626746844158</v>
       </c>
       <c r="N29" t="n">
         <v>903.2030477344641</v>
@@ -6488,25 +6488,25 @@
         <v>1227.346320915452</v>
       </c>
       <c r="S29" t="n">
-        <v>1113.326517914029</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="T29" t="n">
-        <v>1113.326517914029</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="U29" t="n">
-        <v>956.5536004463521</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="V29" t="n">
-        <v>722.6022935218082</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="W29" t="n">
-        <v>466.9452186707207</v>
+        <v>971.6892460643645</v>
       </c>
       <c r="X29" t="n">
-        <v>466.9452186707207</v>
+        <v>971.6892460643645</v>
       </c>
       <c r="Y29" t="n">
-        <v>466.9452186707207</v>
+        <v>971.6892460643645</v>
       </c>
     </row>
     <row r="30">
@@ -6525,13 +6525,13 @@
         <v>193.9725787305779</v>
       </c>
       <c r="E30" t="n">
-        <v>131.846704144149</v>
+        <v>131.8467041441489</v>
       </c>
       <c r="F30" t="n">
-        <v>82.42372659006082</v>
+        <v>82.4237265900606</v>
       </c>
       <c r="G30" t="n">
-        <v>40.80448159170301</v>
+        <v>40.80448159170302</v>
       </c>
       <c r="H30" t="n">
         <v>24.54692641830904</v>
@@ -6546,25 +6546,25 @@
         <v>24.54692641830904</v>
       </c>
       <c r="L30" t="n">
-        <v>254.5100322866582</v>
+        <v>119.0184418516609</v>
       </c>
       <c r="M30" t="n">
-        <v>558.2782467132326</v>
+        <v>422.7866562782353</v>
       </c>
       <c r="N30" t="n">
-        <v>862.046461139807</v>
+        <v>726.5548707048097</v>
       </c>
       <c r="O30" t="n">
-        <v>1044.702843302101</v>
+        <v>975.308284788772</v>
       </c>
       <c r="P30" t="n">
-        <v>1227.346320915452</v>
+        <v>1157.951762402123</v>
       </c>
       <c r="Q30" t="n">
         <v>1227.346320915452</v>
       </c>
       <c r="R30" t="n">
-        <v>1223.288371887364</v>
+        <v>1223.288371887365</v>
       </c>
       <c r="S30" t="n">
         <v>1146.98260775706</v>
@@ -6573,19 +6573,19 @@
         <v>1041.907593534853</v>
       </c>
       <c r="U30" t="n">
-        <v>910.7955556902683</v>
+        <v>910.7955556902684</v>
       </c>
       <c r="V30" t="n">
-        <v>772.7550278775524</v>
+        <v>772.7550278775525</v>
       </c>
       <c r="W30" t="n">
-        <v>615.6292515683774</v>
+        <v>615.6292515683775</v>
       </c>
       <c r="X30" t="n">
-        <v>504.8893317818713</v>
+        <v>504.8893317818714</v>
       </c>
       <c r="Y30" t="n">
-        <v>394.240613435944</v>
+        <v>394.2406134359441</v>
       </c>
     </row>
     <row r="31">
@@ -6619,7 +6619,7 @@
         <v>24.54692641830904</v>
       </c>
       <c r="J31" t="n">
-        <v>27.30039807149106</v>
+        <v>27.30039807149105</v>
       </c>
       <c r="K31" t="n">
         <v>100.4326611325551</v>
@@ -6628,43 +6628,43 @@
         <v>222.9258461089561</v>
       </c>
       <c r="M31" t="n">
-        <v>357.2929442698664</v>
+        <v>357.2929442698663</v>
       </c>
       <c r="N31" t="n">
-        <v>496.1628548939908</v>
+        <v>496.1628548939907</v>
       </c>
       <c r="O31" t="n">
-        <v>615.6811914975782</v>
+        <v>615.6811914975781</v>
       </c>
       <c r="P31" t="n">
-        <v>708.1660251385108</v>
+        <v>708.1660251385107</v>
       </c>
       <c r="Q31" t="n">
-        <v>718.0446622880214</v>
+        <v>718.0446622880213</v>
       </c>
       <c r="R31" t="n">
-        <v>636.0720089927355</v>
+        <v>636.0720089927354</v>
       </c>
       <c r="S31" t="n">
-        <v>636.0720089927355</v>
+        <v>506.9041974552244</v>
       </c>
       <c r="T31" t="n">
-        <v>636.0720089927355</v>
+        <v>506.9041974552244</v>
       </c>
       <c r="U31" t="n">
-        <v>443.97244864763</v>
+        <v>314.8046371101189</v>
       </c>
       <c r="V31" t="n">
-        <v>286.3995408607699</v>
+        <v>301.389400447456</v>
       </c>
       <c r="W31" t="n">
-        <v>286.3995408607699</v>
+        <v>109.0838108295221</v>
       </c>
       <c r="X31" t="n">
-        <v>232.7648095540254</v>
+        <v>109.0838108295221</v>
       </c>
       <c r="Y31" t="n">
-        <v>109.083810829522</v>
+        <v>109.0838108295221</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1070.573403447775</v>
+        <v>695.7654543833223</v>
       </c>
       <c r="C32" t="n">
-        <v>1070.573403447775</v>
+        <v>695.7654543833223</v>
       </c>
       <c r="D32" t="n">
-        <v>809.4192852600513</v>
+        <v>695.7654543833223</v>
       </c>
       <c r="E32" t="n">
-        <v>520.7426130808337</v>
+        <v>695.7654543833223</v>
       </c>
       <c r="F32" t="n">
-        <v>210.8066734557196</v>
+        <v>695.7654543833223</v>
       </c>
       <c r="G32" t="n">
-        <v>24.54692641830904</v>
+        <v>385.8295147582082</v>
       </c>
       <c r="H32" t="n">
-        <v>24.54692641830904</v>
+        <v>140.037254656258</v>
       </c>
       <c r="I32" t="n">
         <v>24.54692641830904</v>
       </c>
       <c r="J32" t="n">
-        <v>92.2121885776526</v>
+        <v>102.1029808000517</v>
       </c>
       <c r="K32" t="n">
-        <v>195.227194488575</v>
+        <v>205.1179867109741</v>
       </c>
       <c r="L32" t="n">
-        <v>375.3030460732335</v>
+        <v>385.1938382956326</v>
       </c>
       <c r="M32" t="n">
-        <v>592.2786733361377</v>
+        <v>602.1694655585368</v>
       </c>
       <c r="N32" t="n">
-        <v>893.312255512065</v>
+        <v>903.2030477344641</v>
       </c>
       <c r="O32" t="n">
-        <v>1042.507205654713</v>
+        <v>1052.397997877112</v>
       </c>
       <c r="P32" t="n">
-        <v>1227.346320915452</v>
+        <v>1142.058053169163</v>
       </c>
       <c r="Q32" t="n">
         <v>1227.346320915452</v>
@@ -6731,19 +6731,19 @@
         <v>1227.346320915452</v>
       </c>
       <c r="U32" t="n">
-        <v>1070.573403447775</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="V32" t="n">
-        <v>1070.573403447775</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="W32" t="n">
-        <v>1070.573403447775</v>
+        <v>1227.346320915452</v>
       </c>
       <c r="X32" t="n">
-        <v>1070.573403447775</v>
+        <v>950.9921430733989</v>
       </c>
       <c r="Y32" t="n">
-        <v>1070.573403447775</v>
+        <v>950.9921430733989</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>323.1368568349028</v>
+        <v>323.1368568349029</v>
       </c>
       <c r="C33" t="n">
         <v>245.7954079728025</v>
       </c>
       <c r="D33" t="n">
-        <v>193.9725787305779</v>
+        <v>193.972578730578</v>
       </c>
       <c r="E33" t="n">
-        <v>131.8467041441491</v>
+        <v>131.8467041441492</v>
       </c>
       <c r="F33" t="n">
-        <v>82.42372659006072</v>
+        <v>82.42372659006082</v>
       </c>
       <c r="G33" t="n">
         <v>40.80448159170302</v>
@@ -6792,10 +6792,10 @@
         <v>987.4040211976444</v>
       </c>
       <c r="O33" t="n">
-        <v>987.4040211976444</v>
+        <v>1157.951762402123</v>
       </c>
       <c r="P33" t="n">
-        <v>1170.047498810995</v>
+        <v>1157.951762402123</v>
       </c>
       <c r="Q33" t="n">
         <v>1227.346320915452</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.7020568425686</v>
+        <v>152.7513099930235</v>
       </c>
       <c r="C34" t="n">
-        <v>163.8774543336883</v>
+        <v>80.92670748414324</v>
       </c>
       <c r="D34" t="n">
-        <v>163.8774543336883</v>
+        <v>80.92670748414324</v>
       </c>
       <c r="E34" t="n">
-        <v>163.8774543336883</v>
+        <v>30.12519432077681</v>
       </c>
       <c r="F34" t="n">
-        <v>163.8774543336883</v>
+        <v>30.12519432077681</v>
       </c>
       <c r="G34" t="n">
-        <v>91.30117681487789</v>
+        <v>30.12519432077681</v>
       </c>
       <c r="H34" t="n">
-        <v>24.54692641830904</v>
+        <v>30.12519432077681</v>
       </c>
       <c r="I34" t="n">
         <v>24.54692641830904</v>
@@ -6883,25 +6883,25 @@
         <v>718.0446622880213</v>
       </c>
       <c r="S34" t="n">
-        <v>588.8768507505104</v>
+        <v>718.0446622880213</v>
       </c>
       <c r="T34" t="n">
-        <v>588.8768507505104</v>
+        <v>718.0446622880213</v>
       </c>
       <c r="U34" t="n">
-        <v>588.8768507505104</v>
+        <v>718.0446622880213</v>
       </c>
       <c r="V34" t="n">
-        <v>431.3039429636502</v>
+        <v>560.4717545011611</v>
       </c>
       <c r="W34" t="n">
-        <v>238.9983533457162</v>
+        <v>368.1661648832271</v>
       </c>
       <c r="X34" t="n">
-        <v>235.7020568425686</v>
+        <v>237.2881944042365</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.7020568425686</v>
+        <v>237.2881944042365</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,22 +6959,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>909.7857885143602</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>795.765985512937</v>
+        <v>850.0373525092131</v>
       </c>
       <c r="T35" t="n">
-        <v>667.5282229378917</v>
+        <v>721.7995899341677</v>
       </c>
       <c r="U35" t="n">
-        <v>667.5282229378917</v>
+        <v>721.7995899341677</v>
       </c>
       <c r="V35" t="n">
-        <v>667.5282229378917</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>667.5282229378917</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
         <v>506.1786963984129</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>255.7451989403777</v>
+        <v>130.9514480311282</v>
       </c>
       <c r="C36" t="n">
-        <v>178.4037500782774</v>
+        <v>53.60999916902786</v>
       </c>
       <c r="D36" t="n">
-        <v>126.5809208360529</v>
+        <v>53.60999916902786</v>
       </c>
       <c r="E36" t="n">
-        <v>126.5809208360529</v>
+        <v>53.60999916902786</v>
       </c>
       <c r="F36" t="n">
-        <v>77.15794328196451</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>35.53869828360671</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7023,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>959.9992064825486</v>
       </c>
       <c r="S36" t="n">
-        <v>959.9992064825486</v>
+        <v>883.6934423522441</v>
       </c>
       <c r="T36" t="n">
-        <v>854.9241922603413</v>
+        <v>778.6184281300368</v>
       </c>
       <c r="U36" t="n">
-        <v>723.812154415757</v>
+        <v>647.5063902854525</v>
       </c>
       <c r="V36" t="n">
-        <v>585.771626603041</v>
+        <v>509.4658624727365</v>
       </c>
       <c r="W36" t="n">
-        <v>548.2375936738524</v>
+        <v>352.3400861635615</v>
       </c>
       <c r="X36" t="n">
-        <v>437.4976738873463</v>
+        <v>241.6001663770554</v>
       </c>
       <c r="Y36" t="n">
-        <v>326.8489555414191</v>
+        <v>130.9514480311282</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.968611514775</v>
+        <v>357.5671989436166</v>
       </c>
       <c r="C37" t="n">
-        <v>128.968611514775</v>
+        <v>357.5671989436166</v>
       </c>
       <c r="D37" t="n">
-        <v>128.968611514775</v>
+        <v>357.5671989436166</v>
       </c>
       <c r="E37" t="n">
-        <v>128.968611514775</v>
+        <v>330.4685209666026</v>
       </c>
       <c r="F37" t="n">
-        <v>79.19024443589137</v>
+        <v>330.4685209666026</v>
       </c>
       <c r="G37" t="n">
-        <v>79.19024443589137</v>
+        <v>330.4685209666026</v>
       </c>
       <c r="H37" t="n">
-        <v>79.19024443589137</v>
+        <v>330.4685209666026</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>270.5594196409239</v>
       </c>
       <c r="J37" t="n">
-        <v>22.03461476339473</v>
+        <v>273.312891294106</v>
       </c>
       <c r="K37" t="n">
-        <v>95.16687782445875</v>
+        <v>346.44515435517</v>
       </c>
       <c r="L37" t="n">
-        <v>217.6600628008598</v>
+        <v>468.938339331571</v>
       </c>
       <c r="M37" t="n">
-        <v>352.0271609617701</v>
+        <v>603.3054374924812</v>
       </c>
       <c r="N37" t="n">
-        <v>490.8970715858944</v>
+        <v>742.1753481166056</v>
       </c>
       <c r="O37" t="n">
-        <v>610.4154081894817</v>
+        <v>861.693684720193</v>
       </c>
       <c r="P37" t="n">
-        <v>702.9002418304143</v>
+        <v>954.1785183611256</v>
       </c>
       <c r="Q37" t="n">
-        <v>712.7788789799249</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>712.7788789799249</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>583.611067442414</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>450.4745777318634</v>
+        <v>830.9206658000857</v>
       </c>
       <c r="U37" t="n">
-        <v>258.3750173867579</v>
+        <v>638.8211054549802</v>
       </c>
       <c r="V37" t="n">
-        <v>258.3750173867579</v>
+        <v>481.24819766812</v>
       </c>
       <c r="W37" t="n">
-        <v>258.3750173867579</v>
+        <v>481.24819766812</v>
       </c>
       <c r="X37" t="n">
-        <v>128.968611514775</v>
+        <v>481.24819766812</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.968611514775</v>
+        <v>357.5671989436166</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>179.43945858206</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>179.43945858206</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>134.7714713481617</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>134.7714713481617</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>134.7714713481617</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>134.7714713481617</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>134.7714713481617</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>909.7857885143602</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>909.7857885143602</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>909.7857885143602</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>909.7857885143602</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>909.7857885143602</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>666.3370118702601</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>422.88823522616</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>422.88823522616</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>164.7029763879316</v>
+        <v>207.2572121614327</v>
       </c>
       <c r="C39" t="n">
-        <v>87.36152752583129</v>
+        <v>129.9157632993324</v>
       </c>
       <c r="D39" t="n">
-        <v>35.53869828360671</v>
+        <v>78.09293405710777</v>
       </c>
       <c r="E39" t="n">
-        <v>35.53869828360671</v>
+        <v>77.15794328196451</v>
       </c>
       <c r="F39" t="n">
-        <v>35.53869828360671</v>
+        <v>77.15794328196451</v>
       </c>
       <c r="G39" t="n">
         <v>35.53869828360671</v>
@@ -7257,16 +7257,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>959.9992064825486</v>
       </c>
       <c r="S39" t="n">
-        <v>883.6934423522441</v>
+        <v>959.9992064825486</v>
       </c>
       <c r="T39" t="n">
-        <v>812.3699564868402</v>
+        <v>854.9241922603413</v>
       </c>
       <c r="U39" t="n">
-        <v>681.257918642256</v>
+        <v>723.812154415757</v>
       </c>
       <c r="V39" t="n">
-        <v>543.2173908295399</v>
+        <v>585.771626603041</v>
       </c>
       <c r="W39" t="n">
-        <v>386.0916145203649</v>
+        <v>428.645850293866</v>
       </c>
       <c r="X39" t="n">
-        <v>275.3516947338588</v>
+        <v>317.9059305073599</v>
       </c>
       <c r="Y39" t="n">
-        <v>164.7029763879316</v>
+        <v>207.2572121614327</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.32794700038383</v>
+        <v>223.2918104493298</v>
       </c>
       <c r="C40" t="n">
-        <v>68.32794700038383</v>
+        <v>151.4672079404496</v>
       </c>
       <c r="D40" t="n">
-        <v>68.32794700038383</v>
+        <v>151.4672079404496</v>
       </c>
       <c r="E40" t="n">
-        <v>68.32794700038383</v>
+        <v>151.4672079404496</v>
       </c>
       <c r="F40" t="n">
-        <v>68.32794700038383</v>
+        <v>151.4672079404496</v>
       </c>
       <c r="G40" t="n">
-        <v>68.32794700038383</v>
+        <v>78.8909304216391</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7354,28 +7354,28 @@
         <v>712.7788789799249</v>
       </c>
       <c r="R40" t="n">
-        <v>712.7788789799249</v>
+        <v>630.806225684639</v>
       </c>
       <c r="S40" t="n">
-        <v>583.611067442414</v>
+        <v>630.806225684639</v>
       </c>
       <c r="T40" t="n">
-        <v>583.611067442414</v>
+        <v>630.806225684639</v>
       </c>
       <c r="U40" t="n">
-        <v>391.5115070973084</v>
+        <v>438.7066653395335</v>
       </c>
       <c r="V40" t="n">
-        <v>391.5115070973084</v>
+        <v>438.7066653395335</v>
       </c>
       <c r="W40" t="n">
-        <v>199.2059174793745</v>
+        <v>438.7066653395335</v>
       </c>
       <c r="X40" t="n">
-        <v>68.32794700038383</v>
+        <v>307.8286948605428</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.32794700038383</v>
+        <v>307.8286948605428</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.82767646177352</v>
+        <v>204.7272722511387</v>
       </c>
       <c r="C41" t="n">
-        <v>5.265783308096315</v>
+        <v>204.7272722511387</v>
       </c>
       <c r="D41" t="n">
-        <v>5.265783308096315</v>
+        <v>204.7272722511387</v>
       </c>
       <c r="E41" t="n">
-        <v>5.265783308096315</v>
+        <v>138.2401092701245</v>
       </c>
       <c r="F41" t="n">
-        <v>5.265783308096315</v>
+        <v>138.2401092701245</v>
       </c>
       <c r="G41" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="H41" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="I41" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="J41" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="K41" t="n">
-        <v>70.42985174578823</v>
+        <v>70.42985174578824</v>
       </c>
       <c r="L41" t="n">
-        <v>70.42985174578823</v>
+        <v>135.5939201834802</v>
       </c>
       <c r="M41" t="n">
-        <v>70.42985174578823</v>
+        <v>198.1250969671239</v>
       </c>
       <c r="N41" t="n">
-        <v>132.9610285294319</v>
+        <v>198.1250969671239</v>
       </c>
       <c r="O41" t="n">
-        <v>198.1250969671239</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="P41" t="n">
         <v>263.2891654048158</v>
@@ -7436,25 +7436,25 @@
         <v>263.2891654048158</v>
       </c>
       <c r="S41" t="n">
-        <v>263.2891654048158</v>
+        <v>204.7272722511387</v>
       </c>
       <c r="T41" t="n">
-        <v>263.2891654048158</v>
+        <v>204.7272722511387</v>
       </c>
       <c r="U41" t="n">
-        <v>196.8020024238017</v>
+        <v>204.7272722511387</v>
       </c>
       <c r="V41" t="n">
-        <v>196.8020024238017</v>
+        <v>204.7272722511387</v>
       </c>
       <c r="W41" t="n">
-        <v>196.8020024238017</v>
+        <v>204.7272722511387</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3148394427876</v>
+        <v>204.7272722511387</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3148394427876</v>
+        <v>204.7272722511387</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="C42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="D42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="E42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="F42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="G42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="H42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="I42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="J42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="K42" t="n">
-        <v>5.265783308096315</v>
+        <v>70.42985174578824</v>
       </c>
       <c r="L42" t="n">
-        <v>5.265783308096315</v>
+        <v>135.5939201834802</v>
       </c>
       <c r="M42" t="n">
-        <v>67.79696009174002</v>
+        <v>135.5939201834802</v>
       </c>
       <c r="N42" t="n">
-        <v>132.9610285294319</v>
+        <v>135.5939201834802</v>
       </c>
       <c r="O42" t="n">
         <v>198.1250969671239</v>
       </c>
       <c r="P42" t="n">
-        <v>198.1250969671239</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="Q42" t="n">
         <v>263.2891654048158</v>
@@ -7518,7 +7518,7 @@
         <v>263.2891654048158</v>
       </c>
       <c r="T42" t="n">
-        <v>263.2891654048158</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="U42" t="n">
         <v>196.8020024238017</v>
@@ -7527,13 +7527,13 @@
         <v>130.3148394427876</v>
       </c>
       <c r="W42" t="n">
-        <v>63.82767646177352</v>
+        <v>130.3148394427876</v>
       </c>
       <c r="X42" t="n">
-        <v>5.265783308096315</v>
+        <v>63.82767646177351</v>
       </c>
       <c r="Y42" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="C43" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="D43" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="E43" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="F43" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="G43" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="H43" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="I43" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="J43" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="K43" t="n">
-        <v>8.570765812386817</v>
+        <v>8.57076581238681</v>
       </c>
       <c r="L43" t="n">
         <v>61.23667023201432</v>
@@ -7579,10 +7579,10 @@
         <v>125.776487836151</v>
       </c>
       <c r="N43" t="n">
-        <v>190.9405562738429</v>
+        <v>190.940556273843</v>
       </c>
       <c r="O43" t="n">
-        <v>240.6316123206567</v>
+        <v>240.6316123206568</v>
       </c>
       <c r="P43" t="n">
         <v>263.2891654048158</v>
@@ -7594,25 +7594,25 @@
         <v>263.2891654048158</v>
       </c>
       <c r="S43" t="n">
+        <v>263.2891654048158</v>
+      </c>
+      <c r="T43" t="n">
+        <v>263.2891654048158</v>
+      </c>
+      <c r="U43" t="n">
+        <v>263.2891654048158</v>
+      </c>
+      <c r="V43" t="n">
         <v>196.8020024238017</v>
       </c>
-      <c r="T43" t="n">
+      <c r="W43" t="n">
         <v>130.3148394427876</v>
       </c>
-      <c r="U43" t="n">
-        <v>63.82767646177352</v>
-      </c>
-      <c r="V43" t="n">
-        <v>63.82767646177352</v>
-      </c>
-      <c r="W43" t="n">
-        <v>5.265783308096315</v>
-      </c>
       <c r="X43" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.265783308096315</v>
+        <v>71.75294628911043</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.7360610935464</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="C44" t="n">
-        <v>53.7360610935464</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="D44" t="n">
-        <v>53.7360610935464</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="E44" t="n">
-        <v>53.7360610935464</v>
+        <v>71.75294628911043</v>
       </c>
       <c r="F44" t="n">
-        <v>53.7360610935464</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="G44" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="H44" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="I44" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="J44" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="K44" t="n">
-        <v>5.265783308096315</v>
+        <v>70.42985174578824</v>
       </c>
       <c r="L44" t="n">
-        <v>67.79696009174002</v>
+        <v>132.961028529432</v>
       </c>
       <c r="M44" t="n">
-        <v>132.9610285294319</v>
+        <v>132.961028529432</v>
       </c>
       <c r="N44" t="n">
+        <v>132.961028529432</v>
+      </c>
+      <c r="O44" t="n">
         <v>198.1250969671239</v>
-      </c>
-      <c r="O44" t="n">
-        <v>263.2891654048158</v>
       </c>
       <c r="P44" t="n">
         <v>263.2891654048158</v>
       </c>
       <c r="Q44" t="n">
-        <v>253.1975500365887</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="R44" t="n">
-        <v>253.1975500365887</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="S44" t="n">
-        <v>253.1975500365887</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="T44" t="n">
-        <v>186.7103870555746</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="U44" t="n">
-        <v>186.7103870555746</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="V44" t="n">
-        <v>186.7103870555746</v>
+        <v>263.2891654048158</v>
       </c>
       <c r="W44" t="n">
-        <v>120.2232240745605</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="X44" t="n">
-        <v>120.2232240745605</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="Y44" t="n">
-        <v>53.7360610935464</v>
+        <v>138.2401092701245</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.3148394427876</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="C45" t="n">
-        <v>130.3148394427876</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="D45" t="n">
-        <v>130.3148394427876</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="E45" t="n">
-        <v>130.3148394427876</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="F45" t="n">
-        <v>130.3148394427876</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="G45" t="n">
-        <v>71.75294628911041</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="H45" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="I45" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="J45" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="K45" t="n">
-        <v>70.42985174578823</v>
+        <v>67.79696009174006</v>
       </c>
       <c r="L45" t="n">
-        <v>135.5939201834801</v>
+        <v>67.79696009174006</v>
       </c>
       <c r="M45" t="n">
-        <v>198.1250969671239</v>
+        <v>67.79696009174006</v>
       </c>
       <c r="N45" t="n">
-        <v>198.1250969671239</v>
+        <v>67.79696009174006</v>
       </c>
       <c r="O45" t="n">
-        <v>198.1250969671239</v>
+        <v>132.961028529432</v>
       </c>
       <c r="P45" t="n">
         <v>198.1250969671239</v>
@@ -7755,22 +7755,22 @@
         <v>263.2891654048158</v>
       </c>
       <c r="T45" t="n">
-        <v>263.2891654048158</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="U45" t="n">
-        <v>263.2891654048158</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="V45" t="n">
-        <v>263.2891654048158</v>
+        <v>196.8020024238017</v>
       </c>
       <c r="W45" t="n">
-        <v>263.2891654048158</v>
+        <v>130.3148394427876</v>
       </c>
       <c r="X45" t="n">
-        <v>196.8020024238017</v>
+        <v>63.82767646177351</v>
       </c>
       <c r="Y45" t="n">
-        <v>130.3148394427876</v>
+        <v>63.82767646177351</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.265783308096315</v>
+        <v>6.823747836338839</v>
       </c>
       <c r="C46" t="n">
-        <v>5.265783308096315</v>
+        <v>6.823747836338839</v>
       </c>
       <c r="D46" t="n">
-        <v>5.265783308096315</v>
+        <v>6.823747836338839</v>
       </c>
       <c r="E46" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="F46" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="G46" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="H46" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="I46" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="J46" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="K46" t="n">
-        <v>5.265783308096315</v>
+        <v>5.265783308096316</v>
       </c>
       <c r="L46" t="n">
         <v>32.57990831580929</v>
@@ -7828,28 +7828,28 @@
         <v>139.7980737983671</v>
       </c>
       <c r="R46" t="n">
-        <v>138.2401092701245</v>
+        <v>73.31091081735295</v>
       </c>
       <c r="S46" t="n">
-        <v>138.2401092701245</v>
+        <v>73.31091081735295</v>
       </c>
       <c r="T46" t="n">
-        <v>138.2401092701245</v>
+        <v>73.31091081735295</v>
       </c>
       <c r="U46" t="n">
-        <v>71.75294628911041</v>
+        <v>73.31091081735295</v>
       </c>
       <c r="V46" t="n">
-        <v>71.75294628911041</v>
+        <v>73.31091081735295</v>
       </c>
       <c r="W46" t="n">
-        <v>71.75294628911041</v>
+        <v>73.31091081735295</v>
       </c>
       <c r="X46" t="n">
-        <v>71.75294628911041</v>
+        <v>73.31091081735295</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.265783308096315</v>
+        <v>6.823747836338839</v>
       </c>
     </row>
   </sheetData>
@@ -8775,16 +8775,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>205.2968387539817</v>
+        <v>207.9563252732223</v>
       </c>
       <c r="N12" t="n">
-        <v>197.1640034345372</v>
+        <v>194.5045169152967</v>
       </c>
       <c r="O12" t="n">
-        <v>208.4185357956484</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>199.7966987655342</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>285.9121423961845</v>
       </c>
       <c r="L14" t="n">
         <v>301.5887063211912</v>
       </c>
       <c r="M14" t="n">
-        <v>296.1685245784766</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>295.2353549477949</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
         <v>293.2610162536501</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>297.0552871064735</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>203.6637303255629</v>
       </c>
       <c r="L15" t="n">
-        <v>204.3766711310781</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>205.2968387539817</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>194.5045169152966</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>208.4185357956484</v>
       </c>
       <c r="P15" t="n">
         <v>199.7966987655342</v>
       </c>
       <c r="Q15" t="n">
-        <v>205.8040654372255</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9483,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>396.1089794800149</v>
+        <v>331.4190225379574</v>
       </c>
       <c r="N24" t="n">
-        <v>214.9645332139068</v>
+        <v>385.3166576413299</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>448.9706141508813</v>
+        <v>185.4866237540786</v>
       </c>
       <c r="N27" t="n">
-        <v>174.6943019153935</v>
+        <v>438.1782923121963</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>233.9801529448761</v>
       </c>
       <c r="M30" t="n">
         <v>448.9706141508813</v>
@@ -10203,13 +10203,13 @@
         <v>438.1782923121963</v>
       </c>
       <c r="O30" t="n">
-        <v>327.0976405679739</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,13 +10440,13 @@
         <v>438.1782923121963</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>314.8666901055337</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>197.8593721713314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,19 +11063,19 @@
         <v>285.9121423961845</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>301.5887063211912</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>293.5090380592361</v>
       </c>
       <c r="N41" t="n">
-        <v>292.5758684285543</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
         <v>295.9205027728907</v>
       </c>
       <c r="P41" t="n">
-        <v>297.0552871064735</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>203.6637303255629</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>204.3766711310781</v>
       </c>
       <c r="M42" t="n">
-        <v>205.2968387539817</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>197.1640034345372</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>208.4185357956484</v>
+        <v>205.7590492764078</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>199.7966987655342</v>
       </c>
       <c r="Q42" t="n">
-        <v>205.8040654372255</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>285.9121423961845</v>
       </c>
       <c r="L44" t="n">
         <v>298.9292198019506</v>
       </c>
       <c r="M44" t="n">
-        <v>296.1685245784766</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>295.2353549477949</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
         <v>295.9205027728907</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>297.0552871064735</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>203.6637303255629</v>
+        <v>201.0042438063224</v>
       </c>
       <c r="L45" t="n">
-        <v>204.3766711310781</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>205.2968387539817</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>208.4185357956484</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>199.7966987655342</v>
       </c>
       <c r="Q45" t="n">
         <v>205.8040654372255</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>372.7431424489358</v>
+        <v>306.9208510977318</v>
       </c>
       <c r="C11" t="n">
         <v>289.4599012052588</v>
@@ -23264,7 +23264,7 @@
         <v>344.6923424061382</v>
       </c>
       <c r="E11" t="n">
-        <v>306.117379506513</v>
+        <v>371.939670857717</v>
       </c>
       <c r="F11" t="n">
         <v>396.8853465271666</v>
@@ -23279,7 +23279,7 @@
         <v>200.4851903558611</v>
       </c>
       <c r="J11" t="n">
-        <v>1.958590140067713</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>317.7615592555901</v>
       </c>
       <c r="W11" t="n">
-        <v>281.2739952807278</v>
+        <v>283.2325854207955</v>
       </c>
       <c r="X11" t="n">
         <v>293.9181101127203</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>90.72019308411859</v>
+        <v>156.5424844353225</v>
       </c>
       <c r="C12" t="n">
         <v>162.7177997737709</v>
@@ -23349,7 +23349,7 @@
         <v>135.0785131788391</v>
       </c>
       <c r="G12" t="n">
-        <v>61.53052659746189</v>
+        <v>69.3765437265254</v>
       </c>
       <c r="H12" t="n">
         <v>102.2447450219517</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>90.16713493809833</v>
+        <v>24.34484358689438</v>
       </c>
       <c r="S12" t="n">
         <v>161.692471889293</v>
       </c>
       <c r="T12" t="n">
-        <v>190.1740294802768</v>
+        <v>124.3517381290729</v>
       </c>
       <c r="U12" t="n">
-        <v>157.9744086442896</v>
+        <v>215.95068286643</v>
       </c>
       <c r="V12" t="n">
         <v>222.8098879348805</v>
@@ -23400,10 +23400,10 @@
         <v>241.7042839463748</v>
       </c>
       <c r="X12" t="n">
-        <v>195.7822859889327</v>
+        <v>129.9599946377287</v>
       </c>
       <c r="Y12" t="n">
-        <v>129.8697052115556</v>
+        <v>195.6919965627596</v>
       </c>
     </row>
     <row r="13">
@@ -23431,16 +23431,16 @@
         <v>158.000280143914</v>
       </c>
       <c r="H13" t="n">
-        <v>86.41418194169083</v>
+        <v>152.2364732928948</v>
       </c>
       <c r="I13" t="n">
-        <v>79.63748436150954</v>
+        <v>145.4597757127135</v>
       </c>
       <c r="J13" t="n">
-        <v>47.81275119410699</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.17134403714958</v>
+        <v>28.33682171779054</v>
       </c>
       <c r="R13" t="n">
-        <v>167.3026921626247</v>
+        <v>101.4804008114207</v>
       </c>
       <c r="S13" t="n">
-        <v>214.0258988224275</v>
+        <v>148.2036074712235</v>
       </c>
       <c r="T13" t="n">
         <v>217.9548902137367</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>361.4290884555512</v>
+        <v>361.4290884555511</v>
       </c>
       <c r="C14" t="n">
         <v>343.9681385630781</v>
       </c>
       <c r="D14" t="n">
-        <v>333.3782884127535</v>
+        <v>275.402014190613</v>
       </c>
       <c r="E14" t="n">
-        <v>360.6256168643324</v>
+        <v>294.8033255131284</v>
       </c>
       <c r="F14" t="n">
-        <v>319.7490011825781</v>
+        <v>385.571292533782</v>
       </c>
       <c r="G14" t="n">
-        <v>393.9979843072056</v>
+        <v>328.1756929560016</v>
       </c>
       <c r="H14" t="n">
         <v>318.1700489078377</v>
       </c>
       <c r="I14" t="n">
-        <v>123.3488450112725</v>
+        <v>189.1711363624764</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>62.74207338201632</v>
+        <v>128.5643647332202</v>
       </c>
       <c r="S14" t="n">
-        <v>187.7153163783159</v>
+        <v>121.8930250271119</v>
       </c>
       <c r="T14" t="n">
         <v>201.7910963562019</v>
       </c>
       <c r="U14" t="n">
-        <v>230.0408996999071</v>
+        <v>230.040899699907</v>
       </c>
       <c r="V14" t="n">
-        <v>306.4475052622055</v>
+        <v>306.4475052622054</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9599412873432</v>
+        <v>327.9362155094835</v>
       </c>
       <c r="X14" t="n">
         <v>348.4263474705396</v>
       </c>
       <c r="Y14" t="n">
-        <v>364.9331854481242</v>
+        <v>364.9331854481241</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.2284304419379</v>
+        <v>87.25215621979743</v>
       </c>
       <c r="C15" t="n">
         <v>151.4037457803863</v>
@@ -23583,16 +23583,16 @@
         <v>136.3403272474715</v>
       </c>
       <c r="F15" t="n">
-        <v>123.7644591854545</v>
+        <v>123.7644591854544</v>
       </c>
       <c r="G15" t="n">
-        <v>116.0387639552812</v>
+        <v>116.0387639552811</v>
       </c>
       <c r="H15" t="n">
-        <v>90.93069102856704</v>
+        <v>90.93069102856697</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09187964348565</v>
+        <v>2.269588292281639</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,25 +23619,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.85308094471371</v>
+        <v>78.85308094471364</v>
       </c>
       <c r="S15" t="n">
-        <v>150.3784178959084</v>
+        <v>84.5561265447044</v>
       </c>
       <c r="T15" t="n">
-        <v>113.0376841356882</v>
+        <v>178.8599754868921</v>
       </c>
       <c r="U15" t="n">
-        <v>138.8143375218415</v>
+        <v>204.6366288730453</v>
       </c>
       <c r="V15" t="n">
-        <v>145.6735425902919</v>
+        <v>145.6735425902918</v>
       </c>
       <c r="W15" t="n">
-        <v>172.4139557308498</v>
+        <v>230.3902299529901</v>
       </c>
       <c r="X15" t="n">
-        <v>184.4682319955481</v>
+        <v>184.468231995548</v>
       </c>
       <c r="Y15" t="n">
         <v>184.3779425693749</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>158.5272269740079</v>
+        <v>158.5272269740078</v>
       </c>
       <c r="C16" t="n">
         <v>145.9420678906984</v>
@@ -23659,7 +23659,7 @@
         <v>127.3107198102829</v>
       </c>
       <c r="E16" t="n">
-        <v>88.63719549385675</v>
+        <v>125.1292094386397</v>
       </c>
       <c r="F16" t="n">
         <v>124.1162948150018</v>
@@ -23668,16 +23668,16 @@
         <v>146.6862261505293</v>
       </c>
       <c r="H16" t="n">
-        <v>75.10012794830621</v>
+        <v>140.9224192995101</v>
       </c>
       <c r="I16" t="n">
-        <v>68.32343036812492</v>
+        <v>134.1457217193288</v>
       </c>
       <c r="J16" t="n">
-        <v>6.232135557539408</v>
+        <v>72.05442690874328</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.9647386179533584</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.85729004376496</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>155.9886381692401</v>
+        <v>90.16634681803606</v>
       </c>
       <c r="S16" t="n">
-        <v>202.7118448290428</v>
+        <v>136.8895534778388</v>
       </c>
       <c r="T16" t="n">
-        <v>206.6408362203521</v>
+        <v>168.2190823501762</v>
       </c>
       <c r="U16" t="n">
-        <v>265.0142761485615</v>
+        <v>265.0142761485614</v>
       </c>
       <c r="V16" t="n">
-        <v>230.8328901158986</v>
+        <v>230.8328901158985</v>
       </c>
       <c r="W16" t="n">
-        <v>265.2182451286616</v>
+        <v>265.2182451286615</v>
       </c>
       <c r="X16" t="n">
         <v>204.4049021811077</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.2799001441654</v>
+        <v>197.2799001441653</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>361.4290884555512</v>
+        <v>361.4290884555511</v>
       </c>
       <c r="C17" t="n">
         <v>343.9681385630781</v>
@@ -23738,7 +23738,7 @@
         <v>333.3782884127535</v>
       </c>
       <c r="E17" t="n">
-        <v>360.6256168643324</v>
+        <v>360.6256168643323</v>
       </c>
       <c r="F17" t="n">
         <v>385.571292533782</v>
@@ -23786,19 +23786,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.954561253702593</v>
+        <v>1.954561253702138</v>
       </c>
       <c r="V17" t="n">
-        <v>306.4475052622055</v>
+        <v>306.4475052622054</v>
       </c>
       <c r="W17" t="n">
-        <v>327.9362155094836</v>
+        <v>327.9362155094835</v>
       </c>
       <c r="X17" t="n">
         <v>348.4263474705396</v>
       </c>
       <c r="Y17" t="n">
-        <v>364.9331854481242</v>
+        <v>364.9331854481241</v>
       </c>
     </row>
     <row r="18">
@@ -23814,19 +23814,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>126.1403123567093</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.7644591854544</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>116.0387639552811</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>6.424878345123147</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>78.85308094471371</v>
+        <v>78.85308094471364</v>
       </c>
       <c r="S18" t="n">
-        <v>150.3784178959084</v>
+        <v>150.3784178959083</v>
       </c>
       <c r="T18" t="n">
-        <v>178.8599754868922</v>
+        <v>178.8599754868921</v>
       </c>
       <c r="U18" t="n">
-        <v>186.2684733902626</v>
+        <v>204.6366288730453</v>
       </c>
       <c r="V18" t="n">
         <v>211.4958339414958</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>230.3902299529901</v>
       </c>
       <c r="X18" t="n">
-        <v>184.4682319955481</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>184.3779425693749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.5272269740079</v>
+        <v>158.5272269740078</v>
       </c>
       <c r="C19" t="n">
         <v>145.9420678906984</v>
@@ -23905,16 +23905,16 @@
         <v>146.6862261505293</v>
       </c>
       <c r="H19" t="n">
-        <v>140.9224192995102</v>
+        <v>140.9224192995101</v>
       </c>
       <c r="I19" t="n">
-        <v>134.1457217193289</v>
+        <v>134.1457217193288</v>
       </c>
       <c r="J19" t="n">
-        <v>72.05442690874335</v>
+        <v>72.05442690874328</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9647386179534294</v>
+        <v>0.9647386179533584</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.85729004376489</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>155.98863816924</v>
       </c>
       <c r="S19" t="n">
         <v>202.7118448290428</v>
       </c>
       <c r="T19" t="n">
-        <v>206.6408362203521</v>
+        <v>206.640836220352</v>
       </c>
       <c r="U19" t="n">
-        <v>250.9365777452183</v>
+        <v>30.09064953221278</v>
       </c>
       <c r="V19" t="n">
-        <v>230.8328901158986</v>
+        <v>230.8328901158985</v>
       </c>
       <c r="W19" t="n">
-        <v>265.2182451286616</v>
+        <v>265.2182451286615</v>
       </c>
       <c r="X19" t="n">
         <v>204.4049021811077</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.2799001441654</v>
+        <v>197.2799001441653</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>286.6624374912161</v>
+        <v>120.414799577892</v>
       </c>
       <c r="C20" t="n">
-        <v>343.9681385630781</v>
+        <v>102.953849685419</v>
       </c>
       <c r="D20" t="n">
         <v>333.3782884127535</v>
       </c>
       <c r="E20" t="n">
-        <v>360.6256168643324</v>
+        <v>360.6256168643323</v>
       </c>
       <c r="F20" t="n">
-        <v>144.557003656123</v>
+        <v>385.571292533782</v>
       </c>
       <c r="G20" t="n">
         <v>393.9979843072056</v>
@@ -23987,7 +23987,7 @@
         <v>318.1700489078377</v>
       </c>
       <c r="I20" t="n">
-        <v>189.1711363624765</v>
+        <v>164.6010670973502</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>128.5643647332203</v>
+        <v>128.5643647332202</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>201.7910963562019</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>230.040899699907</v>
       </c>
       <c r="V20" t="n">
-        <v>306.4475052622055</v>
+        <v>306.4475052622054</v>
       </c>
       <c r="W20" t="n">
-        <v>327.9362155094836</v>
+        <v>327.9362155094835</v>
       </c>
       <c r="X20" t="n">
         <v>348.4263474705396</v>
       </c>
       <c r="Y20" t="n">
-        <v>364.9331854481242</v>
+        <v>123.9188965704651</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>145.2284304419379</v>
       </c>
       <c r="C21" t="n">
-        <v>151.4037457803863</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>126.1403123567093</v>
@@ -24057,16 +24057,16 @@
         <v>136.3403272474715</v>
       </c>
       <c r="F21" t="n">
-        <v>123.7644591854545</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>116.0387639552812</v>
+        <v>116.0387639552811</v>
       </c>
       <c r="H21" t="n">
-        <v>90.93069102856704</v>
+        <v>90.93069102856697</v>
       </c>
       <c r="I21" t="n">
-        <v>68.09187964348565</v>
+        <v>68.09187964348558</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.85308094471371</v>
+        <v>78.85308094471364</v>
       </c>
       <c r="S21" t="n">
-        <v>150.3784178959084</v>
+        <v>150.3784178959083</v>
       </c>
       <c r="T21" t="n">
-        <v>47.40475660143144</v>
+        <v>178.8599754868921</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>143.7129860803798</v>
       </c>
     </row>
     <row r="22">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.5272269740079</v>
+        <v>158.5272269740078</v>
       </c>
       <c r="C22" t="n">
         <v>145.9420678906984</v>
       </c>
       <c r="D22" t="n">
-        <v>127.3107198102829</v>
+        <v>95.09893802297702</v>
       </c>
       <c r="E22" t="n">
         <v>125.1292094386397</v>
@@ -24142,16 +24142,16 @@
         <v>146.6862261505293</v>
       </c>
       <c r="H22" t="n">
-        <v>140.9224192995102</v>
+        <v>140.9224192995101</v>
       </c>
       <c r="I22" t="n">
-        <v>134.1457217193289</v>
+        <v>134.1457217193288</v>
       </c>
       <c r="J22" t="n">
-        <v>72.05442690874335</v>
+        <v>72.05442690874328</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9647386179534294</v>
+        <v>0.9647386179533584</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.85729004376496</v>
+        <v>64.85729004376489</v>
       </c>
       <c r="R22" t="n">
-        <v>155.9886381692401</v>
+        <v>155.98863816924</v>
       </c>
       <c r="S22" t="n">
-        <v>202.7118448290428</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.6408362203521</v>
+        <v>206.640836220352</v>
       </c>
       <c r="U22" t="n">
-        <v>265.0142761485615</v>
+        <v>265.0142761485614</v>
       </c>
       <c r="V22" t="n">
-        <v>230.8328901158986</v>
+        <v>230.8328901158985</v>
       </c>
       <c r="W22" t="n">
-        <v>30.29461851231346</v>
+        <v>265.2182451286615</v>
       </c>
       <c r="X22" t="n">
         <v>204.4049021811077</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.2799001441654</v>
+        <v>197.2799001441653</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>361.4290884555512</v>
+        <v>361.4290884555511</v>
       </c>
       <c r="C23" t="n">
         <v>343.9681385630781</v>
       </c>
       <c r="D23" t="n">
-        <v>79.40334285475694</v>
+        <v>333.3782884127535</v>
       </c>
       <c r="E23" t="n">
-        <v>106.6506713063358</v>
+        <v>200.6850403545488</v>
       </c>
       <c r="F23" t="n">
         <v>385.571292533782</v>
       </c>
       <c r="G23" t="n">
-        <v>393.9979843072056</v>
+        <v>140.0230387492089</v>
       </c>
       <c r="H23" t="n">
-        <v>318.1700489078377</v>
+        <v>64.19510334984102</v>
       </c>
       <c r="I23" t="n">
-        <v>189.1711363624765</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>128.5643647332203</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>187.7153163783159</v>
+        <v>187.7153163783158</v>
       </c>
       <c r="T23" t="n">
         <v>201.7910963562019</v>
       </c>
       <c r="U23" t="n">
-        <v>6.339767652423689</v>
+        <v>230.040899699907</v>
       </c>
       <c r="V23" t="n">
-        <v>52.47255970420889</v>
+        <v>306.4475052622054</v>
       </c>
       <c r="W23" t="n">
-        <v>327.9362155094836</v>
+        <v>327.9362155094835</v>
       </c>
       <c r="X23" t="n">
         <v>348.4263474705396</v>
       </c>
       <c r="Y23" t="n">
-        <v>364.9331854481242</v>
+        <v>364.9331854481241</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>145.2284304419379</v>
       </c>
       <c r="C24" t="n">
         <v>151.4037457803863</v>
       </c>
       <c r="D24" t="n">
-        <v>38.08555300203464</v>
+        <v>109.7299620850426</v>
       </c>
       <c r="E24" t="n">
         <v>136.3403272474715</v>
       </c>
       <c r="F24" t="n">
-        <v>123.7644591854545</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>116.0387639552812</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>90.93069102856704</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09187964348565</v>
+        <v>68.09187964348558</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.85308094471371</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>150.3784178959084</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>204.6366288730453</v>
       </c>
       <c r="V24" t="n">
         <v>211.4958339414958</v>
       </c>
       <c r="W24" t="n">
-        <v>230.3902299529902</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>184.468231995548</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>184.3779425693749</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.5272269740079</v>
+        <v>158.5272269740078</v>
       </c>
       <c r="C25" t="n">
         <v>145.9420678906984</v>
@@ -24379,16 +24379,16 @@
         <v>146.6862261505293</v>
       </c>
       <c r="H25" t="n">
-        <v>140.9224192995102</v>
+        <v>140.9224192995101</v>
       </c>
       <c r="I25" t="n">
-        <v>134.1457217193289</v>
+        <v>134.1457217193288</v>
       </c>
       <c r="J25" t="n">
-        <v>72.05442690874335</v>
+        <v>39.84264512143736</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9647386179534294</v>
+        <v>0.9647386179533584</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.85729004376496</v>
+        <v>64.85729004376489</v>
       </c>
       <c r="R25" t="n">
-        <v>125.4699137339995</v>
+        <v>155.98863816924</v>
       </c>
       <c r="S25" t="n">
-        <v>202.7118448290428</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>206.6408362203521</v>
+        <v>206.640836220352</v>
       </c>
       <c r="U25" t="n">
-        <v>265.0142761485615</v>
+        <v>265.0142761485614</v>
       </c>
       <c r="V25" t="n">
-        <v>230.8328901158986</v>
+        <v>230.8328901158985</v>
       </c>
       <c r="W25" t="n">
-        <v>265.2182451286616</v>
+        <v>265.2182451286615</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>204.4049021811077</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.2799001441654</v>
+        <v>197.2799001441653</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24443,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>283.4262311546193</v>
       </c>
       <c r="D26" t="n">
-        <v>272.8363810042948</v>
+        <v>272.8363810042947</v>
       </c>
       <c r="E26" t="n">
-        <v>300.0837094558736</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>18.19280489646025</v>
+        <v>325.0293851253232</v>
       </c>
       <c r="G26" t="n">
-        <v>333.4560768987469</v>
+        <v>333.4560768987468</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>257.6281414993789</v>
       </c>
       <c r="I26" t="n">
-        <v>86.6359623318</v>
+        <v>128.6292289540177</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.02245732476149</v>
+        <v>68.02245732476142</v>
       </c>
       <c r="S26" t="n">
         <v>127.1734089698571</v>
       </c>
       <c r="T26" t="n">
-        <v>141.2491889477432</v>
+        <v>106.7274270616432</v>
       </c>
       <c r="U26" t="n">
-        <v>169.4989922914483</v>
+        <v>169.4989922914482</v>
       </c>
       <c r="V26" t="n">
         <v>245.9055978537467</v>
       </c>
       <c r="W26" t="n">
-        <v>267.3943081010248</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>287.8844400620808</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>304.3912780396654</v>
+        <v>304.3912780396653</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>84.68652303347915</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>90.86183837192755</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>75.79841983901268</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>55.49685654682237</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>30.3887836201082</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.549972235026814</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24576,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>52.72299997077923</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>46.40867080634374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>97.98531956554903</v>
       </c>
       <c r="C28" t="n">
-        <v>85.40016048223964</v>
+        <v>85.40016048223957</v>
       </c>
       <c r="D28" t="n">
-        <v>66.76881240182416</v>
+        <v>66.76881240182409</v>
       </c>
       <c r="E28" t="n">
-        <v>64.58730203018098</v>
+        <v>64.58730203018091</v>
       </c>
       <c r="F28" t="n">
-        <v>63.57438740654305</v>
+        <v>63.57438740654298</v>
       </c>
       <c r="G28" t="n">
-        <v>86.14431874207057</v>
+        <v>86.1443187420705</v>
       </c>
       <c r="H28" t="n">
-        <v>80.38051189105138</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>73.60381431087009</v>
+        <v>73.60381431087002</v>
       </c>
       <c r="J28" t="n">
-        <v>11.51251950028458</v>
+        <v>11.51251950028451</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.315382635306193</v>
+        <v>4.315382635306122</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>95.44673076078122</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1699374205841</v>
+        <v>142.169937420584</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>146.0989288118932</v>
       </c>
       <c r="U28" t="n">
-        <v>204.4723687401027</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>170.2909827074398</v>
       </c>
       <c r="W28" t="n">
-        <v>204.6763377202028</v>
+        <v>43.39138612093055</v>
       </c>
       <c r="X28" t="n">
-        <v>143.862994772649</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.55912757829546</v>
+        <v>136.7379927357065</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>286.5933770486441</v>
       </c>
       <c r="C29" t="n">
-        <v>137.9946980551466</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>258.5425770058465</v>
@@ -24689,13 +24689,13 @@
         <v>285.7899054574253</v>
       </c>
       <c r="F29" t="n">
-        <v>310.735581126875</v>
+        <v>3.899000898011991</v>
       </c>
       <c r="G29" t="n">
         <v>12.3256926714356</v>
       </c>
       <c r="H29" t="n">
-        <v>243.3343375009307</v>
+        <v>188.469028665233</v>
       </c>
       <c r="I29" t="n">
         <v>114.3354249555695</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>53.72865332631325</v>
+        <v>53.72865332631326</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>112.8796049714089</v>
       </c>
       <c r="T29" t="n">
         <v>126.9553849492949</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>155.2051882930001</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>231.6117938552985</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>273.5906360636326</v>
       </c>
       <c r="Y29" t="n">
-        <v>290.0974740412171</v>
+        <v>290.0974740412172</v>
       </c>
     </row>
     <row r="30">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>71.1063564837914</v>
+        <v>71.10635648379142</v>
       </c>
       <c r="D31" t="n">
-        <v>52.47500840337592</v>
+        <v>52.47500840337594</v>
       </c>
       <c r="E31" t="n">
-        <v>50.29349803173274</v>
+        <v>50.29349803173275</v>
       </c>
       <c r="F31" t="n">
-        <v>49.28058340809481</v>
+        <v>49.28058340809483</v>
       </c>
       <c r="G31" t="n">
-        <v>71.85051474362233</v>
+        <v>71.85051474362234</v>
       </c>
       <c r="H31" t="n">
-        <v>66.08670789260314</v>
+        <v>66.08670789260316</v>
       </c>
       <c r="I31" t="n">
-        <v>59.31001031242185</v>
+        <v>59.31001031242187</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>127.8761334221358</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>131.805124813445</v>
+        <v>131.8051248134451</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>142.7160944129553</v>
       </c>
       <c r="W31" t="n">
-        <v>190.3825337217546</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>76.47080678052367</v>
+        <v>129.5691907742007</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>122.4441887372584</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.5933770486441</v>
+        <v>33.91895524546834</v>
       </c>
       <c r="C32" t="n">
         <v>269.1324271561712</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>258.5425770058465</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>285.7899054574253</v>
       </c>
       <c r="F32" t="n">
-        <v>3.899000898011991</v>
+        <v>310.735581126875</v>
       </c>
       <c r="G32" t="n">
-        <v>134.7651233332622</v>
+        <v>12.3256926714356</v>
       </c>
       <c r="H32" t="n">
-        <v>243.3343375009307</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>114.3354249555695</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,7 +24971,7 @@
         <v>126.9553849492949</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>155.2051882930001</v>
       </c>
       <c r="V32" t="n">
         <v>231.6117938552985</v>
@@ -24980,7 +24980,7 @@
         <v>253.1005041025766</v>
       </c>
       <c r="X32" t="n">
-        <v>273.5906360636326</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>290.0974740412172</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.69151556710088</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>52.47500840337594</v>
       </c>
       <c r="E34" t="n">
-        <v>50.29349803173275</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>49.28058340809483</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>71.85051474362234</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>66.08670789260316</v>
       </c>
       <c r="I34" t="n">
-        <v>59.31001031242187</v>
+        <v>53.78752508897878</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>81.15292676233307</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>127.8761334221358</v>
       </c>
       <c r="T34" t="n">
         <v>131.8051248134451</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>126.3058572360845</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>122.4441887372584</v>
@@ -25157,16 +25157,16 @@
         <v>269.1324271561712</v>
       </c>
       <c r="D35" t="n">
-        <v>17.52828812818746</v>
+        <v>258.5425770058465</v>
       </c>
       <c r="E35" t="n">
-        <v>285.7899054574253</v>
+        <v>44.77561657976628</v>
       </c>
       <c r="F35" t="n">
-        <v>69.72129224921594</v>
+        <v>310.735581126875</v>
       </c>
       <c r="G35" t="n">
-        <v>319.1622729002986</v>
+        <v>78.14798402263955</v>
       </c>
       <c r="H35" t="n">
         <v>243.3343375009307</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.72865332631326</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25211,13 +25211,13 @@
         <v>155.2051882930001</v>
       </c>
       <c r="V35" t="n">
-        <v>231.6117938552985</v>
+        <v>18.14710925490124</v>
       </c>
       <c r="W35" t="n">
         <v>253.1005041025766</v>
       </c>
       <c r="X35" t="n">
-        <v>113.8546047895486</v>
+        <v>273.5906360636326</v>
       </c>
       <c r="Y35" t="n">
         <v>290.0974740412172</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>70.39271903503092</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>51.30460094980234</v>
       </c>
       <c r="E36" t="n">
         <v>61.50461584056453</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>14.94318028032048</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>41.20305254837422</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>16.09497962166004</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>75.5427064890014</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>118.3958259461865</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>52.47500840337594</v>
       </c>
       <c r="E37" t="n">
-        <v>50.29349803173275</v>
+        <v>23.46580683448889</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>49.28058340809483</v>
       </c>
       <c r="G37" t="n">
         <v>71.85051474362234</v>
@@ -25360,7 +25360,7 @@
         <v>81.15292676233307</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>127.8761334221358</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>155.9971787089916</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>190.3825337217546</v>
       </c>
       <c r="X37" t="n">
-        <v>1.456848960937748</v>
+        <v>129.5691907742007</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.4441887372584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>286.5933770486441</v>
+        <v>45.57908817098507</v>
       </c>
       <c r="C38" t="n">
-        <v>56.84704151272916</v>
+        <v>269.1324271561712</v>
       </c>
       <c r="D38" t="n">
-        <v>17.52828812818746</v>
+        <v>214.3212696442872</v>
       </c>
       <c r="E38" t="n">
-        <v>44.77561657976628</v>
+        <v>285.7899054574253</v>
       </c>
       <c r="F38" t="n">
-        <v>69.72129224921594</v>
+        <v>310.735581126875</v>
       </c>
       <c r="G38" t="n">
         <v>319.1622729002986</v>
@@ -25409,7 +25409,7 @@
         <v>243.3343375009307</v>
       </c>
       <c r="I38" t="n">
-        <v>114.3354249555695</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.72865332631326</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>112.8796049714089</v>
@@ -25451,10 +25451,10 @@
         <v>231.6117938552985</v>
       </c>
       <c r="W38" t="n">
-        <v>253.1005041025766</v>
+        <v>12.08621522491754</v>
       </c>
       <c r="X38" t="n">
-        <v>273.5906360636326</v>
+        <v>32.57634718597353</v>
       </c>
       <c r="Y38" t="n">
         <v>290.0974740412172</v>
@@ -25476,13 +25476,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>61.50461584056453</v>
+        <v>60.5789749731727</v>
       </c>
       <c r="F39" t="n">
         <v>48.92874777854746</v>
       </c>
       <c r="G39" t="n">
-        <v>41.20305254837422</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,10 +25518,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>75.5427064890014</v>
       </c>
       <c r="T39" t="n">
-        <v>33.41401307323535</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83.69151556710088</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>71.10635648379142</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>52.47500840337594</v>
@@ -25561,10 +25561,10 @@
         <v>49.28058340809483</v>
       </c>
       <c r="G40" t="n">
-        <v>71.85051474362234</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>17.53037204133377</v>
+        <v>7.073018454291052</v>
       </c>
       <c r="I40" t="n">
         <v>59.31001031242187</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>81.15292676233307</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>127.8761334221358</v>
       </c>
       <c r="T40" t="n">
         <v>131.8051248134451</v>
@@ -25609,7 +25609,7 @@
         <v>155.9971787089916</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>190.3825337217546</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>291.3036923204438</v>
+        <v>357.1259836716477</v>
       </c>
       <c r="C41" t="n">
-        <v>281.6887595570342</v>
+        <v>339.6650337791747</v>
       </c>
       <c r="D41" t="n">
         <v>329.0751836288501</v>
       </c>
       <c r="E41" t="n">
-        <v>356.3225120804289</v>
+        <v>290.500220729225</v>
       </c>
       <c r="F41" t="n">
         <v>381.2681877498786</v>
       </c>
       <c r="G41" t="n">
-        <v>389.6948795233022</v>
+        <v>323.8725881720982</v>
       </c>
       <c r="H41" t="n">
-        <v>313.8669441239343</v>
+        <v>248.0446527727303</v>
       </c>
       <c r="I41" t="n">
         <v>184.8680315785731</v>
@@ -25676,13 +25676,13 @@
         <v>124.2612599493168</v>
       </c>
       <c r="S41" t="n">
-        <v>183.4122115944125</v>
+        <v>125.4359373722721</v>
       </c>
       <c r="T41" t="n">
         <v>197.4879915722985</v>
       </c>
       <c r="U41" t="n">
-        <v>159.9155035647997</v>
+        <v>225.7377949160037</v>
       </c>
       <c r="V41" t="n">
         <v>302.144400478302</v>
@@ -25691,7 +25691,7 @@
         <v>323.6331107255801</v>
       </c>
       <c r="X41" t="n">
-        <v>278.3009513354322</v>
+        <v>344.1232426866362</v>
       </c>
       <c r="Y41" t="n">
         <v>360.6300806642207</v>
@@ -25758,22 +25758,22 @@
         <v>146.075313112005</v>
       </c>
       <c r="T42" t="n">
-        <v>174.5568707029888</v>
+        <v>108.7345793517848</v>
       </c>
       <c r="U42" t="n">
-        <v>134.511232737938</v>
+        <v>200.333524089142</v>
       </c>
       <c r="V42" t="n">
         <v>141.3704378063885</v>
       </c>
       <c r="W42" t="n">
-        <v>160.2648338178828</v>
+        <v>226.0871251690868</v>
       </c>
       <c r="X42" t="n">
-        <v>122.1888529895042</v>
+        <v>114.3428358604407</v>
       </c>
       <c r="Y42" t="n">
-        <v>180.0748377854715</v>
+        <v>122.0985635633311</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>119.8131900310984</v>
       </c>
       <c r="G43" t="n">
-        <v>142.3831213666259</v>
+        <v>76.56083001542196</v>
       </c>
       <c r="H43" t="n">
         <v>136.6193145156067</v>
@@ -25834,22 +25834,22 @@
         <v>151.6855333853366</v>
       </c>
       <c r="S43" t="n">
-        <v>132.5864486939355</v>
+        <v>198.4087400451394</v>
       </c>
       <c r="T43" t="n">
-        <v>136.5154400852447</v>
+        <v>202.3377314364486</v>
       </c>
       <c r="U43" t="n">
-        <v>194.8888800134541</v>
+        <v>260.711171364658</v>
       </c>
       <c r="V43" t="n">
-        <v>226.5297853319952</v>
+        <v>160.7074939807912</v>
       </c>
       <c r="W43" t="n">
-        <v>202.9388661226177</v>
+        <v>195.0928489935542</v>
       </c>
       <c r="X43" t="n">
-        <v>200.1017973972043</v>
+        <v>142.1255231750639</v>
       </c>
       <c r="Y43" t="n">
         <v>192.9767953602619</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>316.9115503122766</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>341.0537543905075</v>
       </c>
       <c r="G44" t="n">
-        <v>367.3171625075395</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>157.2735582129274</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>320.4156473048496</v>
+        <v>328.2616644339132</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>108.5569094277269</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25956,10 +25956,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>79.3672429410702</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>46.41315288529252</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25995,7 +25995,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>134.3424373436176</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>185.8726918097157</v>
       </c>
       <c r="X45" t="n">
         <v>139.9506938522735</v>
       </c>
       <c r="Y45" t="n">
-        <v>139.8604044261004</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>144.8915777636091</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>175.7510064942093</v>
+        <v>111.4711000259655</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>220.4967380052869</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>330732.4826185449</v>
+        <v>330732.4826185451</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>424425.6445144208</v>
+        <v>424425.6445144209</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>424425.6445144207</v>
+        <v>424425.644514421</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>430437.9166949798</v>
+        <v>430437.91669498</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>592548.931749757</v>
+        <v>592548.9317497571</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>624770.501062703</v>
+        <v>624770.5010627029</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>624770.5010627029</v>
+        <v>624770.501062703</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>594236.4362454569</v>
+        <v>594236.436245457</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594236.436245457</v>
+        <v>594236.4362454569</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>340429.2842648791</v>
+        <v>340429.284264879</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>696384.8879094826</v>
+      </c>
+      <c r="C2" t="n">
+        <v>696384.8879094826</v>
+      </c>
+      <c r="D2" t="n">
         <v>696384.8879094827</v>
       </c>
-      <c r="C2" t="n">
-        <v>696384.8879094828</v>
-      </c>
-      <c r="D2" t="n">
-        <v>696384.8879094826</v>
-      </c>
       <c r="E2" t="n">
-        <v>234796.7467345353</v>
+        <v>234796.7467345354</v>
       </c>
       <c r="F2" t="n">
         <v>259217.9388976015</v>
       </c>
       <c r="G2" t="n">
-        <v>329722.0241824701</v>
+        <v>329722.024182471</v>
       </c>
       <c r="H2" t="n">
-        <v>329722.0241824702</v>
+        <v>329722.0241824709</v>
       </c>
       <c r="I2" t="n">
-        <v>334937.8973778225</v>
+        <v>334937.8973778228</v>
       </c>
       <c r="J2" t="n">
-        <v>486156.8553868631</v>
+        <v>486156.8553868634</v>
       </c>
       <c r="K2" t="n">
+        <v>516588.3375157554</v>
+      </c>
+      <c r="L2" t="n">
         <v>516588.3375157553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>516588.3375157554</v>
       </c>
       <c r="M2" t="n">
         <v>490098.8830395598</v>
       </c>
       <c r="N2" t="n">
-        <v>490098.8830395597</v>
+        <v>490098.8830395598</v>
       </c>
       <c r="O2" t="n">
-        <v>268376.0293413613</v>
+        <v>268376.0293413612</v>
       </c>
       <c r="P2" t="n">
         <v>211969.0580183959</v>
@@ -26375,7 +26375,7 @@
         <v>27645.64747869562</v>
       </c>
       <c r="F3" t="n">
-        <v>9051.243194707695</v>
+        <v>9051.243194707751</v>
       </c>
       <c r="G3" t="n">
         <v>48017.49864203845</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3446.510785092038</v>
+        <v>3446.510785092053</v>
       </c>
       <c r="J3" t="n">
-        <v>70257.01484022703</v>
+        <v>70257.01484022701</v>
       </c>
       <c r="K3" t="n">
-        <v>20486.28639346627</v>
+        <v>20486.28639346628</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393012.3122149283</v>
+        <v>393270.9175066696</v>
       </c>
       <c r="C4" t="n">
-        <v>393012.3122149283</v>
+        <v>393270.9175066696</v>
       </c>
       <c r="D4" t="n">
-        <v>393012.3122149283</v>
+        <v>393270.9175066696</v>
       </c>
       <c r="E4" t="n">
-        <v>71361.40193241308</v>
+        <v>71662.17287078376</v>
       </c>
       <c r="F4" t="n">
-        <v>87777.46228680306</v>
+        <v>88078.23322517384</v>
       </c>
       <c r="G4" t="n">
-        <v>106844.3975519739</v>
+        <v>107246.9558849539</v>
       </c>
       <c r="H4" t="n">
-        <v>106844.3975519739</v>
+        <v>107246.9558849539</v>
       </c>
       <c r="I4" t="n">
-        <v>109672.3323050836</v>
+        <v>110077.5076925594</v>
       </c>
       <c r="J4" t="n">
-        <v>208575.3226120936</v>
+        <v>208991.1719786802</v>
       </c>
       <c r="K4" t="n">
-        <v>229040.1830438401</v>
+        <v>229456.0324104265</v>
       </c>
       <c r="L4" t="n">
-        <v>229040.1830438401</v>
+        <v>229456.0324104265</v>
       </c>
       <c r="M4" t="n">
-        <v>214678.1680755881</v>
+        <v>215080.726408568</v>
       </c>
       <c r="N4" t="n">
-        <v>214678.1680755881</v>
+        <v>215080.726408568</v>
       </c>
       <c r="O4" t="n">
-        <v>93933.49550196898</v>
+        <v>94234.26644033968</v>
       </c>
       <c r="P4" t="n">
-        <v>56018.24604429914</v>
+        <v>56319.01698266983</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>4841.903406420767</v>
       </c>
       <c r="F5" t="n">
-        <v>5793.064611590618</v>
+        <v>5793.064611590624</v>
       </c>
       <c r="G5" t="n">
-        <v>16444.73806119909</v>
+        <v>16444.7380611991</v>
       </c>
       <c r="H5" t="n">
-        <v>16444.73806119909</v>
+        <v>16444.7380611991</v>
       </c>
       <c r="I5" t="n">
-        <v>17232.74598736361</v>
+        <v>17232.74598736362</v>
       </c>
       <c r="J5" t="n">
         <v>25536.43098927401</v>
@@ -26506,10 +26506,10 @@
         <v>22736.10148346635</v>
       </c>
       <c r="O5" t="n">
-        <v>6154.822327668596</v>
+        <v>6154.822327668597</v>
       </c>
       <c r="P5" t="n">
-        <v>4001.9953141532</v>
+        <v>4001.995314153201</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269744.9756945544</v>
+        <v>269486.370402813</v>
       </c>
       <c r="C6" t="n">
-        <v>269744.9756945545</v>
+        <v>269486.370402813</v>
       </c>
       <c r="D6" t="n">
-        <v>269744.9756945543</v>
+        <v>269486.3704028131</v>
       </c>
       <c r="E6" t="n">
-        <v>130947.7939170059</v>
+        <v>130647.0229786352</v>
       </c>
       <c r="F6" t="n">
-        <v>156596.1688045001</v>
+        <v>156295.3978661293</v>
       </c>
       <c r="G6" t="n">
-        <v>158415.3899272587</v>
+        <v>158012.8315942796</v>
       </c>
       <c r="H6" t="n">
-        <v>206432.8885692973</v>
+        <v>206030.3302363179</v>
       </c>
       <c r="I6" t="n">
-        <v>204586.3083002833</v>
+        <v>204181.1329128078</v>
       </c>
       <c r="J6" t="n">
-        <v>181788.0869452684</v>
+        <v>181372.2375786822</v>
       </c>
       <c r="K6" t="n">
-        <v>240323.7712808294</v>
+        <v>239907.9219142431</v>
       </c>
       <c r="L6" t="n">
-        <v>260810.0576742957</v>
+        <v>260394.2083077093</v>
       </c>
       <c r="M6" t="n">
-        <v>252684.6134805053</v>
+        <v>252282.0551475254</v>
       </c>
       <c r="N6" t="n">
-        <v>252684.6134805052</v>
+        <v>252282.0551475254</v>
       </c>
       <c r="O6" t="n">
-        <v>168287.7115117237</v>
+        <v>167986.9405733529</v>
       </c>
       <c r="P6" t="n">
-        <v>151948.8166599435</v>
+        <v>151648.0457215729</v>
       </c>
     </row>
   </sheetData>
@@ -26695,22 +26695,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G2" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H2" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I2" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J2" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="K2" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="L2" t="n">
         <v>96.14046461483642</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="P4" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>11.31405399338462</v>
+        <v>11.31405399338469</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>70.53260662300357</v>
       </c>
       <c r="K2" t="n">
-        <v>25.60785799183284</v>
+        <v>25.60785799183285</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.96065668033754</v>
+        <v>12.96065668033759</v>
       </c>
       <c r="J4" t="n">
-        <v>52.86163467086641</v>
+        <v>52.86163467086635</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>11.31405399338462</v>
+        <v>11.31405399338469</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>70.53260662300357</v>
       </c>
       <c r="P2" t="n">
-        <v>25.60785799183284</v>
+        <v>25.60785799183285</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="K16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="L16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="M16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="N16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="O16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="P16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="R16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y17" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="K19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="L19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="M19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="N19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="O19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="P19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="R19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y21" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="K22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="L22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="M22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="N22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="O22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="P22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="R22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="23">
@@ -29035,43 +29035,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="K23" t="n">
-        <v>9.344692770543945</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>9.344692770543977</v>
       </c>
       <c r="N23" t="n">
-        <v>21.30475320792942</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,31 +29080,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="R23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y23" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="C25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="D25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="E25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="F25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="G25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="H25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="I25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="J25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="K25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="L25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="M25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="N25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="O25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="P25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="R25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="S25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="T25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="U25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="V25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="W25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="X25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.30475320792942</v>
+        <v>21.30475320792949</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="C26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="D26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="E26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="F26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="G26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="H26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="I26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="K26" t="n">
-        <v>81.84666061638819</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>81.84666061638819</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>37.02968560556784</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>25.08039625095529</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="R26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="S26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="T26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="U26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="V26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="W26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="X26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="C27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="D27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="E27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="F27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="G27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="H27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="I27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="S27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="T27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="U27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="V27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="W27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="X27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="Y27" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="C28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="D28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="E28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="F28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="G28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="H28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="I28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="J28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="K28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="L28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="M28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="N28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="O28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="P28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="R28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="S28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="T28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="U28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="V28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="W28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="X28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.84666061638819</v>
+        <v>81.84666061638826</v>
       </c>
     </row>
     <row r="29">
@@ -29509,43 +29509,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="C29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="D29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="E29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="F29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="G29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="H29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="I29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="J29" t="n">
-        <v>90.28873822505969</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>96.14046461483643</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>90.2887382250596</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29554,31 +29554,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="R29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="S29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="T29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="U29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="V29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="W29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="X29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="Y29" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
     </row>
     <row r="30">
@@ -29588,25 +29588,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="C30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="D30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="E30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="F30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="G30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="H30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="S30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="T30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="U30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="V30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="W30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="X30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="Y30" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="C31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="D31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="E31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="F31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="G31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="H31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="I31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="J31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="K31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="L31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="M31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="N31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="O31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="P31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="R31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="S31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="T31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="U31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="V31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="W31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="X31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.14046461483643</v>
+        <v>96.14046461483642</v>
       </c>
     </row>
     <row r="32">
@@ -29770,7 +29770,7 @@
         <v>96.14046461483642</v>
       </c>
       <c r="J32" t="n">
-        <v>80.2980390105151</v>
+        <v>90.28873822505966</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29788,10 +29788,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>96.14046461483642</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>96.14046461483642</v>
@@ -30651,7 +30651,7 @@
         <v>25.60785799183285</v>
       </c>
       <c r="N43" t="n">
-        <v>21.69011897197535</v>
+        <v>21.69011897197537</v>
       </c>
       <c r="O43" t="n">
         <v>25.60785799183285</v>
@@ -35495,16 +35495,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>63.16280483196334</v>
+        <v>65.82229135120394</v>
       </c>
       <c r="N12" t="n">
+        <v>63.16280483196336</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>65.82229135120394</v>
-      </c>
-      <c r="O12" t="n">
-        <v>65.82229135120394</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>65.82229135120394</v>
       </c>
       <c r="L14" t="n">
         <v>65.82229135120394</v>
       </c>
       <c r="M14" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>63.16280483196336</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>65.82229135120394</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>65.82229135120394</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>63.16280483196334</v>
+      </c>
+      <c r="O15" t="n">
         <v>65.82229135120394</v>
-      </c>
-      <c r="M15" t="n">
-        <v>63.16280483196334</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>65.82229135120394</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>48.89477846824556</v>
+        <v>48.89477846824563</v>
       </c>
       <c r="M16" t="n">
-        <v>60.88863016977001</v>
+        <v>60.88863016977008</v>
       </c>
       <c r="N16" t="n">
-        <v>65.43692558715802</v>
+        <v>65.43692558715809</v>
       </c>
       <c r="O16" t="n">
-        <v>45.8898811219691</v>
+        <v>45.88988112196917</v>
       </c>
       <c r="P16" t="n">
-        <v>18.58331247282291</v>
+        <v>18.58331247282298</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>48.89477846824556</v>
+        <v>48.89477846824563</v>
       </c>
       <c r="M19" t="n">
-        <v>60.88863016977001</v>
+        <v>60.88863016977008</v>
       </c>
       <c r="N19" t="n">
-        <v>65.43692558715802</v>
+        <v>65.43692558715809</v>
       </c>
       <c r="O19" t="n">
-        <v>45.8898811219691</v>
+        <v>45.88988112196917</v>
       </c>
       <c r="P19" t="n">
-        <v>18.58331247282291</v>
+        <v>18.58331247282298</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36282,19 +36282,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>48.89477846824556</v>
+        <v>48.89477846824563</v>
       </c>
       <c r="M22" t="n">
-        <v>60.88863016977001</v>
+        <v>60.88863016977008</v>
       </c>
       <c r="N22" t="n">
-        <v>65.43692558715802</v>
+        <v>65.43692558715809</v>
       </c>
       <c r="O22" t="n">
-        <v>45.8898811219691</v>
+        <v>45.88988112196917</v>
       </c>
       <c r="P22" t="n">
-        <v>18.58331247282291</v>
+        <v>18.58331247282298</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.355463853316905</v>
+        <v>9.355463853316976</v>
       </c>
       <c r="K23" t="n">
-        <v>113.4002542967281</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>181.8947995804632</v>
+        <v>203.1995527883927</v>
       </c>
       <c r="M23" t="n">
-        <v>219.1673002655598</v>
+        <v>228.5119930361037</v>
       </c>
       <c r="N23" t="n">
-        <v>229.2386140233227</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
         <v>150.7019698410586</v>
@@ -36376,7 +36376,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.31405399338462</v>
+        <v>11.31405399338469</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>189.2849886159391</v>
+      </c>
+      <c r="N24" t="n">
         <v>253.9749455579966</v>
-      </c>
-      <c r="N24" t="n">
-        <v>83.62282113057351</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
@@ -36519,19 +36519,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>48.89477846824556</v>
+        <v>48.89477846824563</v>
       </c>
       <c r="M25" t="n">
-        <v>60.88863016977001</v>
+        <v>60.88863016977008</v>
       </c>
       <c r="N25" t="n">
-        <v>65.43692558715802</v>
+        <v>65.43692558715809</v>
       </c>
       <c r="O25" t="n">
-        <v>45.8898811219691</v>
+        <v>45.88988112196917</v>
       </c>
       <c r="P25" t="n">
-        <v>18.58331247282291</v>
+        <v>18.58331247282298</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.89737126177575</v>
       </c>
       <c r="K26" t="n">
-        <v>185.9022221425724</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>301.0139608819479</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>289.7805214317814</v>
+        <v>289.7805214317815</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>187.7316554466265</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.08969703641048</v>
+        <v>71.85596140184346</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>43.35258983206027</v>
+      </c>
+      <c r="N27" t="n">
         <v>306.836580228863</v>
-      </c>
-      <c r="N27" t="n">
-        <v>43.35258983206021</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>59.57716879050534</v>
+        <v>59.57716879050541</v>
       </c>
       <c r="L28" t="n">
-        <v>109.4366858767043</v>
+        <v>109.4366858767044</v>
       </c>
       <c r="M28" t="n">
-        <v>121.4305375782288</v>
+        <v>121.4305375782289</v>
       </c>
       <c r="N28" t="n">
-        <v>125.9788329956168</v>
+        <v>125.9788329956169</v>
       </c>
       <c r="O28" t="n">
         <v>106.4317885304279</v>
       </c>
       <c r="P28" t="n">
-        <v>79.12521988128168</v>
+        <v>79.12521988128175</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>78.33944887044717</v>
+        <v>84.1911752602239</v>
       </c>
       <c r="K29" t="n">
         <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
-        <v>278.0352641952996</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>298.2225990404528</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36850,7 +36850,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.14976540029163</v>
+        <v>86.14976540029161</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>95.42577316500187</v>
       </c>
       <c r="M30" t="n">
         <v>306.836580228863</v>
@@ -36923,13 +36923,13 @@
         <v>306.836580228863</v>
       </c>
       <c r="O30" t="n">
-        <v>184.5013961235295</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.781284498163657</v>
+        <v>2.781284498163643</v>
       </c>
       <c r="K31" t="n">
-        <v>73.87097278895358</v>
+        <v>73.87097278895357</v>
       </c>
       <c r="L31" t="n">
         <v>123.7304898751526</v>
@@ -37005,10 +37005,10 @@
         <v>120.7255925288761</v>
       </c>
       <c r="P31" t="n">
-        <v>93.41902387972992</v>
+        <v>93.41902387972991</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.978421363142047</v>
+        <v>9.978421363142033</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>68.34874965590258</v>
+        <v>78.33944887044714</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
@@ -37084,10 +37084,10 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>186.7061770310495</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>86.14976540029161</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>306.836580228863</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>172.2704456610893</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.87759808530991</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>63.16280483196336</v>
       </c>
       <c r="N41" t="n">
-        <v>63.16280483196334</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="P41" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="M42" t="n">
-        <v>63.16280483196334</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>65.82229135120394</v>
+        <v>63.16280483196336</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="Q42" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>65.19173495367343</v>
       </c>
       <c r="N43" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="O43" t="n">
         <v>50.19298590587253</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="L44" t="n">
-        <v>63.16280483196334</v>
+        <v>63.16280483196338</v>
       </c>
       <c r="M44" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>65.82229135120394</v>
+        <v>63.16280483196338</v>
       </c>
       <c r="L45" t="n">
-        <v>65.82229135120394</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>63.16280483196336</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="Q45" t="n">
-        <v>65.82229135120394</v>
+        <v>65.82229135120396</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
